--- a/raw_data/excel_report_second.xlsx
+++ b/raw_data/excel_report_second.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Master Local\GraphColoringQ1\raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giuseppe/Documents/SDP/3.Project/nuova/GraphColoringQ1/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61E0EE0-43B2-4834-9B6E-ED81218A9AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674816B4-F006-2644-B08F-46974E89A292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="732" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="732" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jones_seq_1" sheetId="9" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="102">
   <si>
     <t>Column1</t>
   </si>
@@ -245,6 +245,144 @@
   <si>
     <t>LDF 1 Report</t>
   </si>
+  <si>
+    <t>8,0 MB</t>
+  </si>
+  <si>
+    <t>340.8 MB</t>
+  </si>
+  <si>
+    <t>7.1 MB</t>
+  </si>
+  <si>
+    <t>&lt;0,1 MB</t>
+  </si>
+  <si>
+    <t>4.3 MB</t>
+  </si>
+  <si>
+    <t>6.4 MB</t>
+  </si>
+  <si>
+    <t>6.9 MB</t>
+  </si>
+  <si>
+    <t>1298.3 MB</t>
+  </si>
+  <si>
+    <t>183.7 MB</t>
+  </si>
+  <si>
+    <t>6.8 MB</t>
+  </si>
+  <si>
+    <t>5.1 MB</t>
+  </si>
+  <si>
+    <t>15.0 MB</t>
+  </si>
+  <si>
+    <t>6.1 MB</t>
+  </si>
+  <si>
+    <t>498.1 MB</t>
+  </si>
+  <si>
+    <t>13.4 MB</t>
+  </si>
+  <si>
+    <t>4.8 MB</t>
+  </si>
+  <si>
+    <t>6.0 MB</t>
+  </si>
+  <si>
+    <t>8,6 MB</t>
+  </si>
+  <si>
+    <t>336,6 MB</t>
+  </si>
+  <si>
+    <t>6.6 MB</t>
+  </si>
+  <si>
+    <t>7.2 MB</t>
+  </si>
+  <si>
+    <t>6.5 MB</t>
+  </si>
+  <si>
+    <t>1299.4 MB</t>
+  </si>
+  <si>
+    <t>180.2 MB</t>
+  </si>
+  <si>
+    <t>7.0 MB</t>
+  </si>
+  <si>
+    <t>6.2 MB</t>
+  </si>
+  <si>
+    <t>5.4 MB</t>
+  </si>
+  <si>
+    <t>6.3 MB</t>
+  </si>
+  <si>
+    <t>475.0 MB</t>
+  </si>
+  <si>
+    <t>13.1 MB</t>
+  </si>
+  <si>
+    <t>5.3 MB</t>
+  </si>
+  <si>
+    <t>5.2 MB</t>
+  </si>
+  <si>
+    <t>5.8 MB</t>
+  </si>
+  <si>
+    <t>8.0 MB</t>
+  </si>
+  <si>
+    <t>319.6 MB</t>
+  </si>
+  <si>
+    <t>4.2 MB</t>
+  </si>
+  <si>
+    <t>&lt;0.1 MB</t>
+  </si>
+  <si>
+    <t>1041.9 MB</t>
+  </si>
+  <si>
+    <t>136.7 MB</t>
+  </si>
+  <si>
+    <t>1612.1 MB</t>
+  </si>
+  <si>
+    <t>5.9 MB</t>
+  </si>
+  <si>
+    <t>12.6 MB</t>
+  </si>
+  <si>
+    <t>4.5 MB</t>
+  </si>
+  <si>
+    <t>370.3 MB</t>
+  </si>
+  <si>
+    <t>12.9 MB</t>
+  </si>
+  <si>
+    <t>5.7 MB</t>
+  </si>
 </sst>
 </file>
 
@@ -303,7 +441,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -774,14 +912,14 @@
   <sheetViews>
     <sheetView topLeftCell="A149" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -813,7 +951,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -845,7 +983,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -877,7 +1015,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -909,7 +1047,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -941,7 +1079,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -973,7 +1111,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1005,7 +1143,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1037,7 +1175,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1069,7 +1207,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1101,7 +1239,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1133,7 +1271,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1165,7 +1303,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1197,7 +1335,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1229,7 +1367,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1261,7 +1399,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1293,7 +1431,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1325,7 +1463,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1357,7 +1495,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,7 +1527,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1421,7 +1559,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1453,7 +1591,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1485,7 +1623,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1517,7 +1655,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1549,7 +1687,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1581,7 +1719,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -1613,7 +1751,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -1645,7 +1783,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
@@ -1677,7 +1815,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -1709,7 +1847,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -1741,7 +1879,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -1773,7 +1911,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -1805,7 +1943,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -1837,7 +1975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -1869,7 +2007,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -1901,7 +2039,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -1933,7 +2071,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -1965,7 +2103,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -1997,7 +2135,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
@@ -2029,7 +2167,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -2061,7 +2199,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
@@ -2093,7 +2231,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -2125,7 +2263,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -2157,7 +2295,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -2189,7 +2327,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -2221,7 +2359,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -2253,7 +2391,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -2285,7 +2423,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -2317,7 +2455,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -2349,7 +2487,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -2381,7 +2519,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -2413,7 +2551,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
@@ -2445,7 +2583,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
@@ -2477,7 +2615,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>22</v>
       </c>
@@ -2509,7 +2647,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
@@ -2541,7 +2679,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>22</v>
       </c>
@@ -2573,7 +2711,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>23</v>
       </c>
@@ -2605,7 +2743,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>23</v>
       </c>
@@ -2637,7 +2775,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>23</v>
       </c>
@@ -2669,7 +2807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>23</v>
       </c>
@@ -2701,7 +2839,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>23</v>
       </c>
@@ -2733,7 +2871,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>24</v>
       </c>
@@ -2765,7 +2903,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>24</v>
       </c>
@@ -2797,7 +2935,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>24</v>
       </c>
@@ -2829,7 +2967,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
@@ -2861,7 +2999,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>24</v>
       </c>
@@ -2893,7 +3031,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>25</v>
       </c>
@@ -2925,7 +3063,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>25</v>
       </c>
@@ -2957,7 +3095,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>25</v>
       </c>
@@ -2989,7 +3127,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
@@ -3021,7 +3159,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>25</v>
       </c>
@@ -3053,7 +3191,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>26</v>
       </c>
@@ -3085,7 +3223,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>26</v>
       </c>
@@ -3117,7 +3255,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>26</v>
       </c>
@@ -3149,7 +3287,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>26</v>
       </c>
@@ -3181,7 +3319,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>26</v>
       </c>
@@ -3213,7 +3351,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>27</v>
       </c>
@@ -3245,7 +3383,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>27</v>
       </c>
@@ -3277,7 +3415,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>27</v>
       </c>
@@ -3309,7 +3447,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>27</v>
       </c>
@@ -3341,7 +3479,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>27</v>
       </c>
@@ -3373,7 +3511,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>28</v>
       </c>
@@ -3405,7 +3543,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>28</v>
       </c>
@@ -3437,7 +3575,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>28</v>
       </c>
@@ -3469,7 +3607,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>28</v>
       </c>
@@ -3501,7 +3639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>28</v>
       </c>
@@ -3533,7 +3671,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>29</v>
       </c>
@@ -3565,7 +3703,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>29</v>
       </c>
@@ -3597,7 +3735,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>29</v>
       </c>
@@ -3629,7 +3767,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>29</v>
       </c>
@@ -3661,7 +3799,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>29</v>
       </c>
@@ -3693,7 +3831,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>30</v>
       </c>
@@ -3725,7 +3863,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>30</v>
       </c>
@@ -3757,7 +3895,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>30</v>
       </c>
@@ -3789,7 +3927,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>30</v>
       </c>
@@ -3821,7 +3959,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>30</v>
       </c>
@@ -3853,7 +3991,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>31</v>
       </c>
@@ -3885,7 +4023,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>31</v>
       </c>
@@ -3917,7 +4055,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>31</v>
       </c>
@@ -3949,7 +4087,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>31</v>
       </c>
@@ -3981,7 +4119,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>31</v>
       </c>
@@ -4013,7 +4151,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>51</v>
       </c>
@@ -4045,7 +4183,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>51</v>
       </c>
@@ -4077,7 +4215,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>51</v>
       </c>
@@ -4109,7 +4247,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>51</v>
       </c>
@@ -4141,7 +4279,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>51</v>
       </c>
@@ -4173,7 +4311,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>32</v>
       </c>
@@ -4205,7 +4343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>32</v>
       </c>
@@ -4237,7 +4375,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>32</v>
       </c>
@@ -4269,7 +4407,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>32</v>
       </c>
@@ -4301,7 +4439,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>32</v>
       </c>
@@ -4333,7 +4471,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>33</v>
       </c>
@@ -4365,7 +4503,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>33</v>
       </c>
@@ -4397,7 +4535,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>33</v>
       </c>
@@ -4429,7 +4567,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>33</v>
       </c>
@@ -4461,7 +4599,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>33</v>
       </c>
@@ -4493,7 +4631,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>34</v>
       </c>
@@ -4525,7 +4663,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>34</v>
       </c>
@@ -4557,7 +4695,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>34</v>
       </c>
@@ -4589,7 +4727,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>34</v>
       </c>
@@ -4621,7 +4759,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>34</v>
       </c>
@@ -4653,7 +4791,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>35</v>
       </c>
@@ -4685,7 +4823,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>35</v>
       </c>
@@ -4717,7 +4855,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>35</v>
       </c>
@@ -4749,7 +4887,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>35</v>
       </c>
@@ -4781,7 +4919,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>35</v>
       </c>
@@ -4813,7 +4951,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>36</v>
       </c>
@@ -4845,7 +4983,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>36</v>
       </c>
@@ -4877,7 +5015,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>36</v>
       </c>
@@ -4909,7 +5047,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>36</v>
       </c>
@@ -4941,7 +5079,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>36</v>
       </c>
@@ -4973,7 +5111,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>37</v>
       </c>
@@ -5005,7 +5143,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>37</v>
       </c>
@@ -5037,7 +5175,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>37</v>
       </c>
@@ -5069,7 +5207,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>37</v>
       </c>
@@ -5101,7 +5239,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>37</v>
       </c>
@@ -5133,7 +5271,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>38</v>
       </c>
@@ -5165,7 +5303,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>38</v>
       </c>
@@ -5197,7 +5335,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>38</v>
       </c>
@@ -5229,7 +5367,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>38</v>
       </c>
@@ -5261,7 +5399,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>38</v>
       </c>
@@ -5293,7 +5431,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>9</v>
       </c>
@@ -5325,7 +5463,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>9</v>
       </c>
@@ -5357,7 +5495,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>9</v>
       </c>
@@ -5389,7 +5527,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>9</v>
       </c>
@@ -5421,7 +5559,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>9</v>
       </c>
@@ -5453,7 +5591,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>10</v>
       </c>
@@ -5485,7 +5623,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>10</v>
       </c>
@@ -5517,7 +5655,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>10</v>
       </c>
@@ -5549,7 +5687,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>10</v>
       </c>
@@ -5581,7 +5719,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>10</v>
       </c>
@@ -5613,7 +5751,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>11</v>
       </c>
@@ -5645,7 +5783,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>11</v>
       </c>
@@ -5677,7 +5815,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>11</v>
       </c>
@@ -5709,7 +5847,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>11</v>
       </c>
@@ -5741,7 +5879,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>11</v>
       </c>
@@ -5787,14 +5925,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5826,7 +5964,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -5858,7 +5996,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -5890,7 +6028,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -5922,7 +6060,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -5954,7 +6092,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -5986,7 +6124,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -6018,7 +6156,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -6050,7 +6188,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -6082,7 +6220,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -6114,7 +6252,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -6146,7 +6284,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -6178,7 +6316,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -6210,7 +6348,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -6242,7 +6380,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -6274,7 +6412,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -6306,7 +6444,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -6338,7 +6476,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -6370,7 +6508,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -6402,7 +6540,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -6434,7 +6572,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -6466,7 +6604,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -6498,7 +6636,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -6530,7 +6668,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -6562,7 +6700,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -6594,7 +6732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -6626,7 +6764,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -6658,7 +6796,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
@@ -6690,7 +6828,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -6722,7 +6860,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -6754,7 +6892,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -6786,7 +6924,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -6818,7 +6956,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -6850,7 +6988,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -6882,7 +7020,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -6914,7 +7052,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -6946,7 +7084,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -6978,7 +7116,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -7010,7 +7148,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
@@ -7042,7 +7180,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -7074,7 +7212,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
@@ -7106,7 +7244,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -7138,7 +7276,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -7170,7 +7308,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -7202,7 +7340,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -7234,7 +7372,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -7266,7 +7404,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -7298,7 +7436,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -7330,7 +7468,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -7362,7 +7500,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -7394,7 +7532,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -7426,7 +7564,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
@@ -7458,7 +7596,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
@@ -7490,7 +7628,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>22</v>
       </c>
@@ -7522,7 +7660,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
@@ -7554,7 +7692,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>22</v>
       </c>
@@ -7586,7 +7724,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>23</v>
       </c>
@@ -7618,7 +7756,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>23</v>
       </c>
@@ -7650,7 +7788,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>23</v>
       </c>
@@ -7682,7 +7820,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>23</v>
       </c>
@@ -7714,7 +7852,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>23</v>
       </c>
@@ -7746,7 +7884,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>24</v>
       </c>
@@ -7778,7 +7916,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>24</v>
       </c>
@@ -7810,7 +7948,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>24</v>
       </c>
@@ -7842,7 +7980,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
@@ -7874,7 +8012,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>24</v>
       </c>
@@ -7906,7 +8044,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>25</v>
       </c>
@@ -7938,7 +8076,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>25</v>
       </c>
@@ -7970,7 +8108,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>25</v>
       </c>
@@ -8002,7 +8140,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
@@ -8034,7 +8172,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>25</v>
       </c>
@@ -8066,7 +8204,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>26</v>
       </c>
@@ -8098,7 +8236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>26</v>
       </c>
@@ -8130,7 +8268,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>26</v>
       </c>
@@ -8162,7 +8300,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>26</v>
       </c>
@@ -8194,7 +8332,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>26</v>
       </c>
@@ -8226,7 +8364,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>27</v>
       </c>
@@ -8258,7 +8396,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>27</v>
       </c>
@@ -8290,7 +8428,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>27</v>
       </c>
@@ -8322,7 +8460,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>27</v>
       </c>
@@ -8354,7 +8492,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>27</v>
       </c>
@@ -8386,7 +8524,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>28</v>
       </c>
@@ -8418,7 +8556,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>28</v>
       </c>
@@ -8450,7 +8588,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>28</v>
       </c>
@@ -8482,7 +8620,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>28</v>
       </c>
@@ -8514,7 +8652,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>28</v>
       </c>
@@ -8546,7 +8684,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>29</v>
       </c>
@@ -8578,7 +8716,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>29</v>
       </c>
@@ -8610,7 +8748,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>29</v>
       </c>
@@ -8642,7 +8780,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>29</v>
       </c>
@@ -8674,7 +8812,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>29</v>
       </c>
@@ -8706,7 +8844,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>30</v>
       </c>
@@ -8738,7 +8876,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>30</v>
       </c>
@@ -8770,7 +8908,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>30</v>
       </c>
@@ -8802,7 +8940,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>30</v>
       </c>
@@ -8834,7 +8972,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>30</v>
       </c>
@@ -8866,7 +9004,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>31</v>
       </c>
@@ -8898,7 +9036,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>31</v>
       </c>
@@ -8930,7 +9068,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>31</v>
       </c>
@@ -8962,7 +9100,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>31</v>
       </c>
@@ -8994,7 +9132,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>31</v>
       </c>
@@ -9026,7 +9164,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>51</v>
       </c>
@@ -9058,7 +9196,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>51</v>
       </c>
@@ -9090,7 +9228,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>51</v>
       </c>
@@ -9122,7 +9260,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>51</v>
       </c>
@@ -9154,7 +9292,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>51</v>
       </c>
@@ -9186,7 +9324,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>32</v>
       </c>
@@ -9218,7 +9356,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>32</v>
       </c>
@@ -9250,7 +9388,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>32</v>
       </c>
@@ -9282,7 +9420,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>32</v>
       </c>
@@ -9314,7 +9452,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>32</v>
       </c>
@@ -9346,7 +9484,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>33</v>
       </c>
@@ -9378,7 +9516,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>33</v>
       </c>
@@ -9410,7 +9548,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>33</v>
       </c>
@@ -9442,7 +9580,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>33</v>
       </c>
@@ -9474,7 +9612,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>33</v>
       </c>
@@ -9506,7 +9644,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>34</v>
       </c>
@@ -9538,7 +9676,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>34</v>
       </c>
@@ -9570,7 +9708,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>34</v>
       </c>
@@ -9602,7 +9740,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>34</v>
       </c>
@@ -9634,7 +9772,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>34</v>
       </c>
@@ -9666,7 +9804,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>35</v>
       </c>
@@ -9698,7 +9836,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>35</v>
       </c>
@@ -9730,7 +9868,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>35</v>
       </c>
@@ -9762,7 +9900,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>35</v>
       </c>
@@ -9794,7 +9932,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>35</v>
       </c>
@@ -9826,7 +9964,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>36</v>
       </c>
@@ -9858,7 +9996,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>36</v>
       </c>
@@ -9890,7 +10028,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>36</v>
       </c>
@@ -9922,7 +10060,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>36</v>
       </c>
@@ -9954,7 +10092,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>36</v>
       </c>
@@ -9986,7 +10124,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>37</v>
       </c>
@@ -10018,7 +10156,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>37</v>
       </c>
@@ -10050,7 +10188,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>37</v>
       </c>
@@ -10082,7 +10220,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>37</v>
       </c>
@@ -10114,7 +10252,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>37</v>
       </c>
@@ -10146,7 +10284,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>38</v>
       </c>
@@ -10178,7 +10316,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>38</v>
       </c>
@@ -10210,7 +10348,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>38</v>
       </c>
@@ -10242,7 +10380,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>38</v>
       </c>
@@ -10274,7 +10412,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>38</v>
       </c>
@@ -10306,7 +10444,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>9</v>
       </c>
@@ -10338,7 +10476,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>9</v>
       </c>
@@ -10370,7 +10508,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>9</v>
       </c>
@@ -10402,7 +10540,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>9</v>
       </c>
@@ -10434,7 +10572,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>9</v>
       </c>
@@ -10466,7 +10604,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>10</v>
       </c>
@@ -10498,7 +10636,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>10</v>
       </c>
@@ -10530,7 +10668,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>10</v>
       </c>
@@ -10562,7 +10700,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>10</v>
       </c>
@@ -10594,7 +10732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>10</v>
       </c>
@@ -10626,7 +10764,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>11</v>
       </c>
@@ -10658,7 +10796,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>11</v>
       </c>
@@ -10690,7 +10828,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>11</v>
       </c>
@@ -10722,7 +10860,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>11</v>
       </c>
@@ -10754,7 +10892,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>11</v>
       </c>
@@ -10800,14 +10938,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10839,7 +10977,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -10871,7 +11009,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -10903,7 +11041,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -10935,7 +11073,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -10967,7 +11105,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -10999,7 +11137,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -11031,7 +11169,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -11063,7 +11201,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -11095,7 +11233,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -11127,7 +11265,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -11159,7 +11297,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -11191,7 +11329,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -11223,7 +11361,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -11255,7 +11393,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -11287,7 +11425,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -11319,7 +11457,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -11351,7 +11489,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -11383,7 +11521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -11415,7 +11553,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -11447,7 +11585,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -11479,7 +11617,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -11511,7 +11649,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -11543,7 +11681,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -11575,7 +11713,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -11607,7 +11745,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -11639,7 +11777,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -11671,7 +11809,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
@@ -11703,7 +11841,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -11735,7 +11873,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -11767,7 +11905,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -11799,7 +11937,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -11831,7 +11969,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -11863,7 +12001,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -11895,7 +12033,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -11927,7 +12065,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -11959,7 +12097,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -11991,7 +12129,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -12023,7 +12161,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
@@ -12055,7 +12193,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -12087,7 +12225,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
@@ -12119,7 +12257,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -12151,7 +12289,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -12183,7 +12321,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -12215,7 +12353,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -12247,7 +12385,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -12279,7 +12417,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -12311,7 +12449,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -12343,7 +12481,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -12375,7 +12513,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -12407,7 +12545,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -12439,7 +12577,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
@@ -12471,7 +12609,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
@@ -12503,7 +12641,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>22</v>
       </c>
@@ -12535,7 +12673,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
@@ -12567,7 +12705,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>22</v>
       </c>
@@ -12599,7 +12737,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>23</v>
       </c>
@@ -12631,7 +12769,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>23</v>
       </c>
@@ -12663,7 +12801,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>23</v>
       </c>
@@ -12695,7 +12833,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>23</v>
       </c>
@@ -12727,7 +12865,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>23</v>
       </c>
@@ -12759,7 +12897,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>24</v>
       </c>
@@ -12791,7 +12929,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>24</v>
       </c>
@@ -12823,7 +12961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>24</v>
       </c>
@@ -12855,7 +12993,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
@@ -12887,7 +13025,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>24</v>
       </c>
@@ -12919,7 +13057,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>25</v>
       </c>
@@ -12951,7 +13089,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>25</v>
       </c>
@@ -12983,7 +13121,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>25</v>
       </c>
@@ -13015,7 +13153,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
@@ -13047,7 +13185,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>25</v>
       </c>
@@ -13079,7 +13217,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>26</v>
       </c>
@@ -13111,7 +13249,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>26</v>
       </c>
@@ -13143,7 +13281,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>26</v>
       </c>
@@ -13175,7 +13313,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>26</v>
       </c>
@@ -13207,7 +13345,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>26</v>
       </c>
@@ -13239,7 +13377,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>27</v>
       </c>
@@ -13271,7 +13409,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>27</v>
       </c>
@@ -13303,7 +13441,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>27</v>
       </c>
@@ -13335,7 +13473,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>27</v>
       </c>
@@ -13367,7 +13505,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>27</v>
       </c>
@@ -13399,7 +13537,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>28</v>
       </c>
@@ -13431,7 +13569,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>28</v>
       </c>
@@ -13463,7 +13601,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>28</v>
       </c>
@@ -13495,7 +13633,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>28</v>
       </c>
@@ -13527,7 +13665,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>28</v>
       </c>
@@ -13559,7 +13697,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>29</v>
       </c>
@@ -13591,7 +13729,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>29</v>
       </c>
@@ -13623,7 +13761,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>29</v>
       </c>
@@ -13655,7 +13793,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>29</v>
       </c>
@@ -13687,7 +13825,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>29</v>
       </c>
@@ -13719,7 +13857,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>30</v>
       </c>
@@ -13751,7 +13889,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>30</v>
       </c>
@@ -13783,7 +13921,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>30</v>
       </c>
@@ -13815,7 +13953,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>30</v>
       </c>
@@ -13847,7 +13985,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>30</v>
       </c>
@@ -13879,7 +14017,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>31</v>
       </c>
@@ -13911,7 +14049,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>31</v>
       </c>
@@ -13943,7 +14081,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>31</v>
       </c>
@@ -13975,7 +14113,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>31</v>
       </c>
@@ -14007,7 +14145,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>31</v>
       </c>
@@ -14039,7 +14177,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>51</v>
       </c>
@@ -14071,7 +14209,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>51</v>
       </c>
@@ -14103,7 +14241,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>51</v>
       </c>
@@ -14135,7 +14273,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>51</v>
       </c>
@@ -14167,7 +14305,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>51</v>
       </c>
@@ -14199,7 +14337,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>32</v>
       </c>
@@ -14231,7 +14369,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>32</v>
       </c>
@@ -14263,7 +14401,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>32</v>
       </c>
@@ -14295,7 +14433,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>32</v>
       </c>
@@ -14327,7 +14465,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>32</v>
       </c>
@@ -14359,7 +14497,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>33</v>
       </c>
@@ -14391,7 +14529,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>33</v>
       </c>
@@ -14423,7 +14561,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>33</v>
       </c>
@@ -14455,7 +14593,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>33</v>
       </c>
@@ -14487,7 +14625,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>33</v>
       </c>
@@ -14519,7 +14657,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>34</v>
       </c>
@@ -14551,7 +14689,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>34</v>
       </c>
@@ -14583,7 +14721,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>34</v>
       </c>
@@ -14615,7 +14753,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>34</v>
       </c>
@@ -14647,7 +14785,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>34</v>
       </c>
@@ -14679,7 +14817,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>35</v>
       </c>
@@ -14711,7 +14849,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>35</v>
       </c>
@@ -14743,7 +14881,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>35</v>
       </c>
@@ -14775,7 +14913,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>35</v>
       </c>
@@ -14807,7 +14945,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>35</v>
       </c>
@@ -14839,7 +14977,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>36</v>
       </c>
@@ -14871,7 +15009,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>36</v>
       </c>
@@ -14903,7 +15041,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>36</v>
       </c>
@@ -14935,7 +15073,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>36</v>
       </c>
@@ -14967,7 +15105,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>36</v>
       </c>
@@ -14999,7 +15137,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>37</v>
       </c>
@@ -15031,7 +15169,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>37</v>
       </c>
@@ -15063,7 +15201,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>37</v>
       </c>
@@ -15095,7 +15233,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>37</v>
       </c>
@@ -15127,7 +15265,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>37</v>
       </c>
@@ -15159,7 +15297,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>38</v>
       </c>
@@ -15191,7 +15329,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>38</v>
       </c>
@@ -15223,7 +15361,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>38</v>
       </c>
@@ -15255,7 +15393,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>38</v>
       </c>
@@ -15287,7 +15425,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>38</v>
       </c>
@@ -15319,7 +15457,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>9</v>
       </c>
@@ -15351,7 +15489,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>9</v>
       </c>
@@ -15383,7 +15521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>9</v>
       </c>
@@ -15415,7 +15553,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>9</v>
       </c>
@@ -15447,7 +15585,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>9</v>
       </c>
@@ -15479,7 +15617,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>10</v>
       </c>
@@ -15511,7 +15649,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>10</v>
       </c>
@@ -15543,7 +15681,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>10</v>
       </c>
@@ -15575,7 +15713,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>10</v>
       </c>
@@ -15607,7 +15745,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>10</v>
       </c>
@@ -15639,7 +15777,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>11</v>
       </c>
@@ -15671,7 +15809,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>11</v>
       </c>
@@ -15703,7 +15841,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>11</v>
       </c>
@@ -15735,7 +15873,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>11</v>
       </c>
@@ -15767,7 +15905,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>11</v>
       </c>
@@ -15815,14 +15953,14 @@
       <selection activeCell="F17" sqref="F17:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15854,7 +15992,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -15886,7 +16024,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -15918,7 +16056,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -15950,7 +16088,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -15982,7 +16120,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -16014,7 +16152,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -16046,7 +16184,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -16078,7 +16216,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -16110,7 +16248,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -16142,7 +16280,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -16174,7 +16312,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -16206,7 +16344,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -16238,7 +16376,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -16270,7 +16408,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -16302,7 +16440,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -16334,7 +16472,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -16366,7 +16504,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -16398,7 +16536,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -16430,7 +16568,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -16462,7 +16600,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -16494,7 +16632,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -16526,7 +16664,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -16558,7 +16696,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -16590,7 +16728,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -16622,7 +16760,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -16654,7 +16792,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -16686,7 +16824,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
@@ -16718,7 +16856,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -16750,7 +16888,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -16782,7 +16920,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -16814,7 +16952,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -16846,7 +16984,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -16878,7 +17016,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -16910,7 +17048,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -16942,7 +17080,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -16974,7 +17112,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -17006,7 +17144,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -17038,7 +17176,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
@@ -17070,7 +17208,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -17102,7 +17240,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
@@ -17134,7 +17272,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -17166,7 +17304,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -17198,7 +17336,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -17230,7 +17368,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -17262,7 +17400,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -17294,7 +17432,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -17326,7 +17464,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -17358,7 +17496,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -17390,7 +17528,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -17422,7 +17560,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -17454,7 +17592,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
@@ -17486,7 +17624,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
@@ -17518,7 +17656,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>22</v>
       </c>
@@ -17550,7 +17688,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
@@ -17582,7 +17720,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>22</v>
       </c>
@@ -17614,7 +17752,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>23</v>
       </c>
@@ -17646,7 +17784,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>23</v>
       </c>
@@ -17678,7 +17816,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>23</v>
       </c>
@@ -17710,7 +17848,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>23</v>
       </c>
@@ -17742,7 +17880,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>23</v>
       </c>
@@ -17774,7 +17912,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>24</v>
       </c>
@@ -17806,7 +17944,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>24</v>
       </c>
@@ -17838,7 +17976,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>24</v>
       </c>
@@ -17870,7 +18008,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
@@ -17902,7 +18040,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>24</v>
       </c>
@@ -17934,7 +18072,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>25</v>
       </c>
@@ -17966,7 +18104,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>25</v>
       </c>
@@ -17998,7 +18136,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>25</v>
       </c>
@@ -18030,7 +18168,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
@@ -18062,7 +18200,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>25</v>
       </c>
@@ -18094,7 +18232,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>26</v>
       </c>
@@ -18126,7 +18264,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>26</v>
       </c>
@@ -18158,7 +18296,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>26</v>
       </c>
@@ -18190,7 +18328,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>26</v>
       </c>
@@ -18222,7 +18360,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>26</v>
       </c>
@@ -18254,7 +18392,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>27</v>
       </c>
@@ -18286,7 +18424,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>27</v>
       </c>
@@ -18318,7 +18456,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>27</v>
       </c>
@@ -18350,7 +18488,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>27</v>
       </c>
@@ -18382,7 +18520,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>27</v>
       </c>
@@ -18414,7 +18552,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>28</v>
       </c>
@@ -18446,7 +18584,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>28</v>
       </c>
@@ -18478,7 +18616,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>28</v>
       </c>
@@ -18510,7 +18648,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>28</v>
       </c>
@@ -18542,7 +18680,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>28</v>
       </c>
@@ -18574,7 +18712,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>29</v>
       </c>
@@ -18606,7 +18744,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>29</v>
       </c>
@@ -18638,7 +18776,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>29</v>
       </c>
@@ -18670,7 +18808,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>29</v>
       </c>
@@ -18702,7 +18840,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>29</v>
       </c>
@@ -18734,7 +18872,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>30</v>
       </c>
@@ -18766,7 +18904,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>30</v>
       </c>
@@ -18798,7 +18936,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>30</v>
       </c>
@@ -18830,7 +18968,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>30</v>
       </c>
@@ -18862,7 +19000,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>30</v>
       </c>
@@ -18894,7 +19032,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>31</v>
       </c>
@@ -18926,7 +19064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>31</v>
       </c>
@@ -18958,7 +19096,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>31</v>
       </c>
@@ -18990,7 +19128,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>31</v>
       </c>
@@ -19022,7 +19160,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>31</v>
       </c>
@@ -19054,7 +19192,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>51</v>
       </c>
@@ -19086,7 +19224,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>51</v>
       </c>
@@ -19118,7 +19256,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>51</v>
       </c>
@@ -19150,7 +19288,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>51</v>
       </c>
@@ -19182,7 +19320,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>51</v>
       </c>
@@ -19214,7 +19352,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>32</v>
       </c>
@@ -19246,7 +19384,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>32</v>
       </c>
@@ -19278,7 +19416,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>32</v>
       </c>
@@ -19310,7 +19448,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>32</v>
       </c>
@@ -19342,7 +19480,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>32</v>
       </c>
@@ -19374,7 +19512,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>33</v>
       </c>
@@ -19406,7 +19544,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>33</v>
       </c>
@@ -19438,7 +19576,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>33</v>
       </c>
@@ -19470,7 +19608,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>33</v>
       </c>
@@ -19502,7 +19640,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>33</v>
       </c>
@@ -19534,7 +19672,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>34</v>
       </c>
@@ -19566,7 +19704,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>34</v>
       </c>
@@ -19598,7 +19736,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>34</v>
       </c>
@@ -19630,7 +19768,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>34</v>
       </c>
@@ -19662,7 +19800,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>34</v>
       </c>
@@ -19694,7 +19832,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>35</v>
       </c>
@@ -19726,7 +19864,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>35</v>
       </c>
@@ -19758,7 +19896,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>35</v>
       </c>
@@ -19790,7 +19928,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>35</v>
       </c>
@@ -19822,7 +19960,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>35</v>
       </c>
@@ -19854,7 +19992,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>36</v>
       </c>
@@ -19886,7 +20024,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>36</v>
       </c>
@@ -19918,7 +20056,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>36</v>
       </c>
@@ -19950,7 +20088,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>36</v>
       </c>
@@ -19982,7 +20120,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>36</v>
       </c>
@@ -20014,7 +20152,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>37</v>
       </c>
@@ -20046,7 +20184,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>37</v>
       </c>
@@ -20078,7 +20216,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>37</v>
       </c>
@@ -20110,7 +20248,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>37</v>
       </c>
@@ -20142,7 +20280,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>37</v>
       </c>
@@ -20174,7 +20312,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>38</v>
       </c>
@@ -20206,7 +20344,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>38</v>
       </c>
@@ -20238,7 +20376,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>38</v>
       </c>
@@ -20270,7 +20408,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>38</v>
       </c>
@@ -20302,7 +20440,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>38</v>
       </c>
@@ -20334,7 +20472,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>9</v>
       </c>
@@ -20366,7 +20504,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>9</v>
       </c>
@@ -20398,7 +20536,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>9</v>
       </c>
@@ -20430,7 +20568,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>9</v>
       </c>
@@ -20462,7 +20600,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>9</v>
       </c>
@@ -20494,7 +20632,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>10</v>
       </c>
@@ -20526,7 +20664,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>10</v>
       </c>
@@ -20558,7 +20696,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>10</v>
       </c>
@@ -20590,7 +20728,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>10</v>
       </c>
@@ -20622,7 +20760,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>10</v>
       </c>
@@ -20654,7 +20792,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>11</v>
       </c>
@@ -20686,7 +20824,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>11</v>
       </c>
@@ -20718,7 +20856,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>11</v>
       </c>
@@ -20750,7 +20888,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>11</v>
       </c>
@@ -20782,7 +20920,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>11</v>
       </c>
@@ -20830,48 +20968,48 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C1" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.2">
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
@@ -20972,7 +21110,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C5" s="4" t="s">
         <v>39</v>
       </c>
@@ -21109,7 +21247,7 @@
         <v>6642</v>
       </c>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
@@ -21246,7 +21384,7 @@
         <v>84784</v>
       </c>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C7" s="4" t="s">
         <v>41</v>
       </c>
@@ -21383,7 +21521,7 @@
         <v>53-55</v>
       </c>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C8" s="4" t="s">
         <v>42</v>
       </c>
@@ -21487,7 +21625,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>49</v>
       </c>
@@ -21627,7 +21765,7 @@
         <v>43983.4</v>
       </c>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
@@ -21767,7 +21905,7 @@
         <v>34144.400000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>49</v>
       </c>
@@ -21907,7 +22045,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>49</v>
       </c>
@@ -22060,51 +22198,51 @@
   <dimension ref="B1:AJ12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="D7" sqref="D7:AJ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C1" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.2">
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
@@ -22205,7 +22343,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C5" s="4" t="s">
         <v>39</v>
       </c>
@@ -22342,7 +22480,7 @@
         <v>6642</v>
       </c>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
@@ -22479,7 +22617,7 @@
         <v>84784</v>
       </c>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C7" s="4" t="s">
         <v>41</v>
       </c>
@@ -22616,102 +22754,102 @@
         <v>9-9</v>
       </c>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C8" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
         <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="M8" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="N8" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="O8" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="P8" t="s">
         <v>47</v>
       </c>
       <c r="Q8" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="R8" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="T8" t="s">
         <v>47</v>
       </c>
       <c r="U8" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="V8" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="W8" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="X8" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="Y8" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="Z8" t="s">
         <v>47</v>
       </c>
       <c r="AA8" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="AB8" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="AC8" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="AD8" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AE8" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AF8" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AG8" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="AH8" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="AI8" t="s">
         <v>47</v>
@@ -22720,7 +22858,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>49</v>
       </c>
@@ -22860,7 +22998,7 @@
         <v>43957.2</v>
       </c>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
@@ -23000,7 +23138,7 @@
         <v>90578.8</v>
       </c>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>49</v>
       </c>
@@ -23140,7 +23278,7 @@
         <v>1551.4</v>
       </c>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>49</v>
       </c>
@@ -23290,54 +23428,53 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACEA667-672E-4294-9E4B-7E06B2927947}">
-  <dimension ref="B1:AJ12"/>
+  <dimension ref="B1:AG12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+    <sheetView topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:AG7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C1" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.2">
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
@@ -23405,40 +23542,31 @@
         <v>30</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C5" s="4" t="s">
         <v>39</v>
       </c>
@@ -23532,50 +23660,38 @@
       </c>
       <c r="Z5">
         <f>_xlfn.MINIFS(jones_seq_2_spinoff!$B$2:$B$170,jones_seq_2_spinoff!$A$2:$A$170,Z$3)</f>
-        <v>32768</v>
+        <v>16087295</v>
       </c>
       <c r="AA5">
         <f>_xlfn.MINIFS(jones_seq_2_spinoff!$B$2:$B$170,jones_seq_2_spinoff!$A$2:$A$170,AA$3)</f>
-        <v>2097152</v>
+        <v>1595444</v>
       </c>
       <c r="AB5">
         <f>_xlfn.MINIFS(jones_seq_2_spinoff!$B$2:$B$170,jones_seq_2_spinoff!$A$2:$A$170,AB$3)</f>
-        <v>16777216</v>
+        <v>10</v>
       </c>
       <c r="AC5">
         <f>_xlfn.MINIFS(jones_seq_2_spinoff!$B$2:$B$170,jones_seq_2_spinoff!$A$2:$A$170,AC$3)</f>
-        <v>16087295</v>
+        <v>100</v>
       </c>
       <c r="AD5">
         <f>_xlfn.MINIFS(jones_seq_2_spinoff!$B$2:$B$170,jones_seq_2_spinoff!$A$2:$A$170,AD$3)</f>
-        <v>1595444</v>
+        <v>1000</v>
       </c>
       <c r="AE5">
         <f>_xlfn.MINIFS(jones_seq_2_spinoff!$B$2:$B$170,jones_seq_2_spinoff!$A$2:$A$170,AE$3)</f>
-        <v>10</v>
+        <v>9491</v>
       </c>
       <c r="AF5">
         <f>_xlfn.MINIFS(jones_seq_2_spinoff!$B$2:$B$170,jones_seq_2_spinoff!$A$2:$A$170,AF$3)</f>
-        <v>100</v>
+        <v>6080</v>
       </c>
       <c r="AG5">
         <f>_xlfn.MINIFS(jones_seq_2_spinoff!$B$2:$B$170,jones_seq_2_spinoff!$A$2:$A$170,AG$3)</f>
-        <v>1000</v>
-      </c>
-      <c r="AH5">
-        <f>_xlfn.MINIFS(jones_seq_2_spinoff!$B$2:$B$170,jones_seq_2_spinoff!$A$2:$A$170,AH$3)</f>
-        <v>9491</v>
-      </c>
-      <c r="AI5">
-        <f>_xlfn.MINIFS(jones_seq_2_spinoff!$B$2:$B$170,jones_seq_2_spinoff!$A$2:$A$170,AI$3)</f>
-        <v>6080</v>
-      </c>
-      <c r="AJ5">
-        <f>_xlfn.MINIFS(jones_seq_2_spinoff!$B$2:$B$170,jones_seq_2_spinoff!$A$2:$A$170,AJ$3)</f>
         <v>6642</v>
       </c>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
@@ -23669,50 +23785,38 @@
       </c>
       <c r="Z6">
         <f>_xlfn.MINIFS(jones_seq_2_spinoff!$C$2:$C$170,jones_seq_2_spinoff!$A$2:$A$170,Z$3)</f>
-        <v>160240</v>
+        <v>32174586</v>
       </c>
       <c r="AA6">
         <f>_xlfn.MINIFS(jones_seq_2_spinoff!$C$2:$C$170,jones_seq_2_spinoff!$A$2:$A$170,AA$3)</f>
-        <v>14487995</v>
+        <v>3190884</v>
       </c>
       <c r="AB6">
         <f>_xlfn.MINIFS(jones_seq_2_spinoff!$C$2:$C$170,jones_seq_2_spinoff!$A$2:$A$170,AB$3)</f>
-        <v>132557200</v>
+        <v>50</v>
       </c>
       <c r="AC6">
         <f>_xlfn.MINIFS(jones_seq_2_spinoff!$C$2:$C$170,jones_seq_2_spinoff!$A$2:$A$170,AC$3)</f>
-        <v>32174586</v>
+        <v>8172</v>
       </c>
       <c r="AD6">
         <f>_xlfn.MINIFS(jones_seq_2_spinoff!$C$2:$C$170,jones_seq_2_spinoff!$A$2:$A$170,AD$3)</f>
-        <v>3190884</v>
+        <v>823024</v>
       </c>
       <c r="AE6">
         <f>_xlfn.MINIFS(jones_seq_2_spinoff!$C$2:$C$170,jones_seq_2_spinoff!$A$2:$A$170,AE$3)</f>
-        <v>50</v>
+        <v>20690</v>
       </c>
       <c r="AF6">
         <f>_xlfn.MINIFS(jones_seq_2_spinoff!$C$2:$C$170,jones_seq_2_spinoff!$A$2:$A$170,AF$3)</f>
-        <v>8172</v>
+        <v>14102</v>
       </c>
       <c r="AG6">
         <f>_xlfn.MINIFS(jones_seq_2_spinoff!$C$2:$C$170,jones_seq_2_spinoff!$A$2:$A$170,AG$3)</f>
-        <v>823024</v>
-      </c>
-      <c r="AH6">
-        <f>_xlfn.MINIFS(jones_seq_2_spinoff!$C$2:$C$170,jones_seq_2_spinoff!$A$2:$A$170,AH$3)</f>
-        <v>20690</v>
-      </c>
-      <c r="AI6">
-        <f>_xlfn.MINIFS(jones_seq_2_spinoff!$C$2:$C$170,jones_seq_2_spinoff!$A$2:$A$170,AI$3)</f>
-        <v>14102</v>
-      </c>
-      <c r="AJ6">
-        <f>_xlfn.MINIFS(jones_seq_2_spinoff!$C$2:$C$170,jones_seq_2_spinoff!$A$2:$A$170,AJ$3)</f>
         <v>84784</v>
       </c>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C7" s="4" t="s">
         <v>41</v>
       </c>
@@ -23806,154 +23910,133 @@
       </c>
       <c r="Z7" t="str">
         <f>_xlfn.CONCAT(_xlfn.MINIFS(jones_seq_2_spinoff!$E$2:$E$170,jones_seq_2_spinoff!$A$2:$A$170,Z$3),"-",_xlfn.MAXIFS(jones_seq_2_spinoff!$E$2:$E$170,jones_seq_2_spinoff!$A$2:$A$170,Z$3))</f>
-        <v>21-22</v>
+        <v>6-6</v>
       </c>
       <c r="AA7" t="str">
         <f>_xlfn.CONCAT(_xlfn.MINIFS(jones_seq_2_spinoff!$E$2:$E$170,jones_seq_2_spinoff!$A$2:$A$170,AA$3),"-",_xlfn.MAXIFS(jones_seq_2_spinoff!$E$2:$E$170,jones_seq_2_spinoff!$A$2:$A$170,AA$3))</f>
-        <v>33-36</v>
+        <v>4-4</v>
       </c>
       <c r="AB7" t="str">
         <f>_xlfn.CONCAT(_xlfn.MINIFS(jones_seq_2_spinoff!$E$2:$E$170,jones_seq_2_spinoff!$A$2:$A$170,AB$3),"-",_xlfn.MAXIFS(jones_seq_2_spinoff!$E$2:$E$170,jones_seq_2_spinoff!$A$2:$A$170,AB$3))</f>
-        <v>39-41</v>
+        <v>6-6</v>
       </c>
       <c r="AC7" t="str">
         <f>_xlfn.CONCAT(_xlfn.MINIFS(jones_seq_2_spinoff!$E$2:$E$170,jones_seq_2_spinoff!$A$2:$A$170,AC$3),"-",_xlfn.MAXIFS(jones_seq_2_spinoff!$E$2:$E$170,jones_seq_2_spinoff!$A$2:$A$170,AC$3))</f>
-        <v>6-6</v>
+        <v>78-78</v>
       </c>
       <c r="AD7" t="str">
         <f>_xlfn.CONCAT(_xlfn.MINIFS(jones_seq_2_spinoff!$E$2:$E$170,jones_seq_2_spinoff!$A$2:$A$170,AD$3),"-",_xlfn.MAXIFS(jones_seq_2_spinoff!$E$2:$E$170,jones_seq_2_spinoff!$A$2:$A$170,AD$3))</f>
-        <v>4-4</v>
+        <v>752-752</v>
       </c>
       <c r="AE7" t="str">
         <f>_xlfn.CONCAT(_xlfn.MINIFS(jones_seq_2_spinoff!$E$2:$E$170,jones_seq_2_spinoff!$A$2:$A$170,AE$3),"-",_xlfn.MAXIFS(jones_seq_2_spinoff!$E$2:$E$170,jones_seq_2_spinoff!$A$2:$A$170,AE$3))</f>
-        <v>6-6</v>
+        <v>8-8</v>
       </c>
       <c r="AF7" t="str">
         <f>_xlfn.CONCAT(_xlfn.MINIFS(jones_seq_2_spinoff!$E$2:$E$170,jones_seq_2_spinoff!$A$2:$A$170,AF$3),"-",_xlfn.MAXIFS(jones_seq_2_spinoff!$E$2:$E$170,jones_seq_2_spinoff!$A$2:$A$170,AF$3))</f>
-        <v>78-78</v>
+        <v>9-9</v>
       </c>
       <c r="AG7" t="str">
         <f>_xlfn.CONCAT(_xlfn.MINIFS(jones_seq_2_spinoff!$E$2:$E$170,jones_seq_2_spinoff!$A$2:$A$170,AG$3),"-",_xlfn.MAXIFS(jones_seq_2_spinoff!$E$2:$E$170,jones_seq_2_spinoff!$A$2:$A$170,AG$3))</f>
-        <v>752-752</v>
-      </c>
-      <c r="AH7" t="str">
-        <f>_xlfn.CONCAT(_xlfn.MINIFS(jones_seq_2_spinoff!$E$2:$E$170,jones_seq_2_spinoff!$A$2:$A$170,AH$3),"-",_xlfn.MAXIFS(jones_seq_2_spinoff!$E$2:$E$170,jones_seq_2_spinoff!$A$2:$A$170,AH$3))</f>
-        <v>8-8</v>
-      </c>
-      <c r="AI7" t="str">
-        <f>_xlfn.CONCAT(_xlfn.MINIFS(jones_seq_2_spinoff!$E$2:$E$170,jones_seq_2_spinoff!$A$2:$A$170,AI$3),"-",_xlfn.MAXIFS(jones_seq_2_spinoff!$E$2:$E$170,jones_seq_2_spinoff!$A$2:$A$170,AI$3))</f>
-        <v>9-9</v>
-      </c>
-      <c r="AJ7" t="str">
-        <f>_xlfn.CONCAT(_xlfn.MINIFS(jones_seq_2_spinoff!$E$2:$E$170,jones_seq_2_spinoff!$A$2:$A$170,AJ$3),"-",_xlfn.MAXIFS(jones_seq_2_spinoff!$E$2:$E$170,jones_seq_2_spinoff!$A$2:$A$170,AJ$3))</f>
         <v>30-30</v>
       </c>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C8" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
         <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="M8" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="N8" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="P8" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="Q8" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="R8" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="S8" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="T8" t="s">
         <v>47</v>
       </c>
       <c r="U8" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="V8" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="W8" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="X8" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="Y8" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="Z8" t="s">
         <v>47</v>
       </c>
       <c r="AA8" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="AB8" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="AC8" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="AD8" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="AE8" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="AF8" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AG8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>49</v>
       </c>
@@ -24050,50 +24133,38 @@
       </c>
       <c r="Z9" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$G$2:$G$170,jones_seq_2_spinoff!$A$2:$A$170,Z$3, jones_seq_2_spinoff!$D$2:$D$170,$B9)</f>
-        <v>127795.2</v>
+        <v>59860186</v>
       </c>
       <c r="AA9" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$G$2:$G$170,jones_seq_2_spinoff!$A$2:$A$170,AA$3, jones_seq_2_spinoff!$D$2:$D$170,$B9)</f>
-        <v>9488743.4000000004</v>
+        <v>5382289</v>
       </c>
       <c r="AB9" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$G$2:$G$170,jones_seq_2_spinoff!$A$2:$A$170,AB$3, jones_seq_2_spinoff!$D$2:$D$170,$B9)</f>
-        <v>83400754.799999997</v>
+        <v>346.6</v>
       </c>
       <c r="AC9" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$G$2:$G$170,jones_seq_2_spinoff!$A$2:$A$170,AC$3, jones_seq_2_spinoff!$D$2:$D$170,$B9)</f>
-        <v>59860186</v>
+        <v>2317.4</v>
       </c>
       <c r="AD9" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$G$2:$G$170,jones_seq_2_spinoff!$A$2:$A$170,AD$3, jones_seq_2_spinoff!$D$2:$D$170,$B9)</f>
-        <v>5382289</v>
+        <v>201805.4</v>
       </c>
       <c r="AE9" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$G$2:$G$170,jones_seq_2_spinoff!$A$2:$A$170,AE$3, jones_seq_2_spinoff!$D$2:$D$170,$B9)</f>
-        <v>346.6</v>
+        <v>68435.8</v>
       </c>
       <c r="AF9" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$G$2:$G$170,jones_seq_2_spinoff!$A$2:$A$170,AF$3, jones_seq_2_spinoff!$D$2:$D$170,$B9)</f>
-        <v>2317.4</v>
+        <v>37918.199999999997</v>
       </c>
       <c r="AG9" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$G$2:$G$170,jones_seq_2_spinoff!$A$2:$A$170,AG$3, jones_seq_2_spinoff!$D$2:$D$170,$B9)</f>
-        <v>201805.4</v>
-      </c>
-      <c r="AH9" s="3">
-        <f>AVERAGEIFS(jones_seq_2_spinoff!$G$2:$G$170,jones_seq_2_spinoff!$A$2:$A$170,AH$3, jones_seq_2_spinoff!$D$2:$D$170,$B9)</f>
-        <v>68435.8</v>
-      </c>
-      <c r="AI9" s="3">
-        <f>AVERAGEIFS(jones_seq_2_spinoff!$G$2:$G$170,jones_seq_2_spinoff!$A$2:$A$170,AI$3, jones_seq_2_spinoff!$D$2:$D$170,$B9)</f>
-        <v>37918.199999999997</v>
-      </c>
-      <c r="AJ9" s="3">
-        <f>AVERAGEIFS(jones_seq_2_spinoff!$G$2:$G$170,jones_seq_2_spinoff!$A$2:$A$170,AJ$3, jones_seq_2_spinoff!$D$2:$D$170,$B9)</f>
         <v>45243.4</v>
       </c>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
@@ -24190,50 +24261,38 @@
       </c>
       <c r="Z10" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$H$2:$H$170,jones_seq_2_spinoff!$A$2:$A$170,Z$3, jones_seq_2_spinoff!$D$2:$D$170,$B10)</f>
-        <v>186841</v>
+        <v>39509021</v>
       </c>
       <c r="AA10" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$H$2:$H$170,jones_seq_2_spinoff!$A$2:$A$170,AA$3, jones_seq_2_spinoff!$D$2:$D$170,$B10)</f>
-        <v>19154952.399999999</v>
+        <v>3203267.6</v>
       </c>
       <c r="AB10" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$H$2:$H$170,jones_seq_2_spinoff!$A$2:$A$170,AB$3, jones_seq_2_spinoff!$D$2:$D$170,$B10)</f>
-        <v>177320292.40000001</v>
+        <v>221</v>
       </c>
       <c r="AC10" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$H$2:$H$170,jones_seq_2_spinoff!$A$2:$A$170,AC$3, jones_seq_2_spinoff!$D$2:$D$170,$B10)</f>
-        <v>39509021</v>
+        <v>5603</v>
       </c>
       <c r="AD10" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$H$2:$H$170,jones_seq_2_spinoff!$A$2:$A$170,AD$3, jones_seq_2_spinoff!$D$2:$D$170,$B10)</f>
-        <v>3203267.6</v>
+        <v>737667</v>
       </c>
       <c r="AE10" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$H$2:$H$170,jones_seq_2_spinoff!$A$2:$A$170,AE$3, jones_seq_2_spinoff!$D$2:$D$170,$B10)</f>
-        <v>221</v>
+        <v>17336</v>
       </c>
       <c r="AF10" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$H$2:$H$170,jones_seq_2_spinoff!$A$2:$A$170,AF$3, jones_seq_2_spinoff!$D$2:$D$170,$B10)</f>
-        <v>5603</v>
+        <v>12956.2</v>
       </c>
       <c r="AG10" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$H$2:$H$170,jones_seq_2_spinoff!$A$2:$A$170,AG$3, jones_seq_2_spinoff!$D$2:$D$170,$B10)</f>
-        <v>737667</v>
-      </c>
-      <c r="AH10" s="3">
-        <f>AVERAGEIFS(jones_seq_2_spinoff!$H$2:$H$170,jones_seq_2_spinoff!$A$2:$A$170,AH$3, jones_seq_2_spinoff!$D$2:$D$170,$B10)</f>
-        <v>17336</v>
-      </c>
-      <c r="AI10" s="3">
-        <f>AVERAGEIFS(jones_seq_2_spinoff!$H$2:$H$170,jones_seq_2_spinoff!$A$2:$A$170,AI$3, jones_seq_2_spinoff!$D$2:$D$170,$B10)</f>
-        <v>12956.2</v>
-      </c>
-      <c r="AJ10" s="3">
-        <f>AVERAGEIFS(jones_seq_2_spinoff!$H$2:$H$170,jones_seq_2_spinoff!$A$2:$A$170,AJ$3, jones_seq_2_spinoff!$D$2:$D$170,$B10)</f>
         <v>68568.800000000003</v>
       </c>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>49</v>
       </c>
@@ -24330,50 +24389,38 @@
       </c>
       <c r="Z11" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$I$2:$I$170,jones_seq_2_spinoff!$A$2:$A$170,Z$3, jones_seq_2_spinoff!$D$2:$D$170,$B11)</f>
-        <v>7499.8</v>
+        <v>2771502.2</v>
       </c>
       <c r="AA11" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$I$2:$I$170,jones_seq_2_spinoff!$A$2:$A$170,AA$3, jones_seq_2_spinoff!$D$2:$D$170,$B11)</f>
-        <v>380962.2</v>
+        <v>268398</v>
       </c>
       <c r="AB11" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$I$2:$I$170,jones_seq_2_spinoff!$A$2:$A$170,AB$3, jones_seq_2_spinoff!$D$2:$D$170,$B11)</f>
-        <v>2987683.8</v>
+        <v>424</v>
       </c>
       <c r="AC11" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$I$2:$I$170,jones_seq_2_spinoff!$A$2:$A$170,AC$3, jones_seq_2_spinoff!$D$2:$D$170,$B11)</f>
-        <v>2771502.2</v>
+        <v>355</v>
       </c>
       <c r="AD11" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$I$2:$I$170,jones_seq_2_spinoff!$A$2:$A$170,AD$3, jones_seq_2_spinoff!$D$2:$D$170,$B11)</f>
-        <v>268398</v>
+        <v>605.6</v>
       </c>
       <c r="AE11" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$I$2:$I$170,jones_seq_2_spinoff!$A$2:$A$170,AE$3, jones_seq_2_spinoff!$D$2:$D$170,$B11)</f>
-        <v>424</v>
+        <v>1998.2</v>
       </c>
       <c r="AF11" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$I$2:$I$170,jones_seq_2_spinoff!$A$2:$A$170,AF$3, jones_seq_2_spinoff!$D$2:$D$170,$B11)</f>
-        <v>355</v>
+        <v>1463.2</v>
       </c>
       <c r="AG11" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$I$2:$I$170,jones_seq_2_spinoff!$A$2:$A$170,AG$3, jones_seq_2_spinoff!$D$2:$D$170,$B11)</f>
-        <v>605.6</v>
-      </c>
-      <c r="AH11" s="3">
-        <f>AVERAGEIFS(jones_seq_2_spinoff!$I$2:$I$170,jones_seq_2_spinoff!$A$2:$A$170,AH$3, jones_seq_2_spinoff!$D$2:$D$170,$B11)</f>
-        <v>1998.2</v>
-      </c>
-      <c r="AI11" s="3">
-        <f>AVERAGEIFS(jones_seq_2_spinoff!$I$2:$I$170,jones_seq_2_spinoff!$A$2:$A$170,AI$3, jones_seq_2_spinoff!$D$2:$D$170,$B11)</f>
-        <v>1463.2</v>
-      </c>
-      <c r="AJ11" s="3">
-        <f>AVERAGEIFS(jones_seq_2_spinoff!$I$2:$I$170,jones_seq_2_spinoff!$A$2:$A$170,AJ$3, jones_seq_2_spinoff!$D$2:$D$170,$B11)</f>
         <v>1698.4</v>
       </c>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>49</v>
       </c>
@@ -24470,46 +24517,34 @@
       </c>
       <c r="Z12" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$F$2:$F$170,jones_seq_2_spinoff!$A$2:$A$170,Z$3, jones_seq_2_spinoff!$D$2:$D$170,$B12)</f>
-        <v>322136.40000000002</v>
+        <v>102140710</v>
       </c>
       <c r="AA12" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$F$2:$F$170,jones_seq_2_spinoff!$A$2:$A$170,AA$3, jones_seq_2_spinoff!$D$2:$D$170,$B12)</f>
-        <v>29024659.199999999</v>
+        <v>8853955.4000000004</v>
       </c>
       <c r="AB12" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$F$2:$F$170,jones_seq_2_spinoff!$A$2:$A$170,AB$3, jones_seq_2_spinoff!$D$2:$D$170,$B12)</f>
-        <v>263708732.19999999</v>
+        <v>992.6</v>
       </c>
       <c r="AC12" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$F$2:$F$170,jones_seq_2_spinoff!$A$2:$A$170,AC$3, jones_seq_2_spinoff!$D$2:$D$170,$B12)</f>
-        <v>102140710</v>
+        <v>8276.2000000000007</v>
       </c>
       <c r="AD12" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$F$2:$F$170,jones_seq_2_spinoff!$A$2:$A$170,AD$3, jones_seq_2_spinoff!$D$2:$D$170,$B12)</f>
-        <v>8853955.4000000004</v>
+        <v>940078.4</v>
       </c>
       <c r="AE12" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$F$2:$F$170,jones_seq_2_spinoff!$A$2:$A$170,AE$3, jones_seq_2_spinoff!$D$2:$D$170,$B12)</f>
-        <v>992.6</v>
+        <v>87771</v>
       </c>
       <c r="AF12" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$F$2:$F$170,jones_seq_2_spinoff!$A$2:$A$170,AF$3, jones_seq_2_spinoff!$D$2:$D$170,$B12)</f>
-        <v>8276.2000000000007</v>
+        <v>52339.199999999997</v>
       </c>
       <c r="AG12" s="3">
         <f>AVERAGEIFS(jones_seq_2_spinoff!$F$2:$F$170,jones_seq_2_spinoff!$A$2:$A$170,AG$3, jones_seq_2_spinoff!$D$2:$D$170,$B12)</f>
-        <v>940078.4</v>
-      </c>
-      <c r="AH12" s="3">
-        <f>AVERAGEIFS(jones_seq_2_spinoff!$F$2:$F$170,jones_seq_2_spinoff!$A$2:$A$170,AH$3, jones_seq_2_spinoff!$D$2:$D$170,$B12)</f>
-        <v>87771</v>
-      </c>
-      <c r="AI12" s="3">
-        <f>AVERAGEIFS(jones_seq_2_spinoff!$F$2:$F$170,jones_seq_2_spinoff!$A$2:$A$170,AI$3, jones_seq_2_spinoff!$D$2:$D$170,$B12)</f>
-        <v>52339.199999999997</v>
-      </c>
-      <c r="AJ12" s="3">
-        <f>AVERAGEIFS(jones_seq_2_spinoff!$F$2:$F$170,jones_seq_2_spinoff!$A$2:$A$170,AJ$3, jones_seq_2_spinoff!$D$2:$D$170,$B12)</f>
         <v>115511.2</v>
       </c>
     </row>
@@ -24523,54 +24558,53 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B8DEC9-36CD-4545-9639-11D2B355CD64}">
-  <dimension ref="B1:AJ12"/>
+  <dimension ref="B1:AG12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="D8" sqref="D8:AG8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C1" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.2">
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
@@ -24638,40 +24672,31 @@
         <v>30</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C5" s="4" t="s">
         <v>39</v>
       </c>
@@ -24765,50 +24790,38 @@
       </c>
       <c r="Z5">
         <f>_xlfn.MINIFS(ldf_seq_1!$B$2:$B$170,ldf_seq_1!$A$2:$A$170,Z$3)</f>
-        <v>32768</v>
+        <v>16087295</v>
       </c>
       <c r="AA5">
         <f>_xlfn.MINIFS(ldf_seq_1!$B$2:$B$170,ldf_seq_1!$A$2:$A$170,AA$3)</f>
-        <v>2097152</v>
+        <v>1595444</v>
       </c>
       <c r="AB5">
         <f>_xlfn.MINIFS(ldf_seq_1!$B$2:$B$170,ldf_seq_1!$A$2:$A$170,AB$3)</f>
-        <v>16777216</v>
+        <v>10</v>
       </c>
       <c r="AC5">
         <f>_xlfn.MINIFS(ldf_seq_1!$B$2:$B$170,ldf_seq_1!$A$2:$A$170,AC$3)</f>
-        <v>16087295</v>
+        <v>100</v>
       </c>
       <c r="AD5">
         <f>_xlfn.MINIFS(ldf_seq_1!$B$2:$B$170,ldf_seq_1!$A$2:$A$170,AD$3)</f>
-        <v>1595444</v>
+        <v>1000</v>
       </c>
       <c r="AE5">
         <f>_xlfn.MINIFS(ldf_seq_1!$B$2:$B$170,ldf_seq_1!$A$2:$A$170,AE$3)</f>
-        <v>10</v>
+        <v>9491</v>
       </c>
       <c r="AF5">
         <f>_xlfn.MINIFS(ldf_seq_1!$B$2:$B$170,ldf_seq_1!$A$2:$A$170,AF$3)</f>
-        <v>100</v>
+        <v>6080</v>
       </c>
       <c r="AG5">
         <f>_xlfn.MINIFS(ldf_seq_1!$B$2:$B$170,ldf_seq_1!$A$2:$A$170,AG$3)</f>
-        <v>1000</v>
-      </c>
-      <c r="AH5">
-        <f>_xlfn.MINIFS(ldf_seq_1!$B$2:$B$170,ldf_seq_1!$A$2:$A$170,AH$3)</f>
-        <v>9491</v>
-      </c>
-      <c r="AI5">
-        <f>_xlfn.MINIFS(ldf_seq_1!$B$2:$B$170,ldf_seq_1!$A$2:$A$170,AI$3)</f>
-        <v>6080</v>
-      </c>
-      <c r="AJ5">
-        <f>_xlfn.MINIFS(ldf_seq_1!$B$2:$B$170,ldf_seq_1!$A$2:$A$170,AJ$3)</f>
         <v>6642</v>
       </c>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
@@ -24902,50 +24915,38 @@
       </c>
       <c r="Z6">
         <f>_xlfn.MINIFS(ldf_seq_1!$C$2:$C$170,ldf_seq_1!$A$2:$A$170,Z$3)</f>
-        <v>160240</v>
+        <v>32174586</v>
       </c>
       <c r="AA6">
         <f>_xlfn.MINIFS(ldf_seq_1!$C$2:$C$170,ldf_seq_1!$A$2:$A$170,AA$3)</f>
-        <v>14487995</v>
+        <v>3190884</v>
       </c>
       <c r="AB6">
         <f>_xlfn.MINIFS(ldf_seq_1!$C$2:$C$170,ldf_seq_1!$A$2:$A$170,AB$3)</f>
-        <v>132557200</v>
+        <v>50</v>
       </c>
       <c r="AC6">
         <f>_xlfn.MINIFS(ldf_seq_1!$C$2:$C$170,ldf_seq_1!$A$2:$A$170,AC$3)</f>
-        <v>32174586</v>
+        <v>8172</v>
       </c>
       <c r="AD6">
         <f>_xlfn.MINIFS(ldf_seq_1!$C$2:$C$170,ldf_seq_1!$A$2:$A$170,AD$3)</f>
-        <v>3190884</v>
+        <v>823024</v>
       </c>
       <c r="AE6">
         <f>_xlfn.MINIFS(ldf_seq_1!$C$2:$C$170,ldf_seq_1!$A$2:$A$170,AE$3)</f>
-        <v>50</v>
+        <v>20690</v>
       </c>
       <c r="AF6">
         <f>_xlfn.MINIFS(ldf_seq_1!$C$2:$C$170,ldf_seq_1!$A$2:$A$170,AF$3)</f>
-        <v>8172</v>
+        <v>14102</v>
       </c>
       <c r="AG6">
         <f>_xlfn.MINIFS(ldf_seq_1!$C$2:$C$170,ldf_seq_1!$A$2:$A$170,AG$3)</f>
-        <v>823024</v>
-      </c>
-      <c r="AH6">
-        <f>_xlfn.MINIFS(ldf_seq_1!$C$2:$C$170,ldf_seq_1!$A$2:$A$170,AH$3)</f>
-        <v>20690</v>
-      </c>
-      <c r="AI6">
-        <f>_xlfn.MINIFS(ldf_seq_1!$C$2:$C$170,ldf_seq_1!$A$2:$A$170,AI$3)</f>
-        <v>14102</v>
-      </c>
-      <c r="AJ6">
-        <f>_xlfn.MINIFS(ldf_seq_1!$C$2:$C$170,ldf_seq_1!$A$2:$A$170,AJ$3)</f>
         <v>84784</v>
       </c>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C7" s="4" t="s">
         <v>41</v>
       </c>
@@ -25039,154 +25040,133 @@
       </c>
       <c r="Z7" t="str">
         <f>_xlfn.CONCAT(_xlfn.MINIFS(ldf_seq_1!$E$2:$E$170,ldf_seq_1!$A$2:$A$170,Z$3),"-",_xlfn.MAXIFS(ldf_seq_1!$E$2:$E$170,ldf_seq_1!$A$2:$A$170,Z$3))</f>
-        <v>13-14</v>
+        <v>3-3</v>
       </c>
       <c r="AA7" t="str">
         <f>_xlfn.CONCAT(_xlfn.MINIFS(ldf_seq_1!$E$2:$E$170,ldf_seq_1!$A$2:$A$170,AA$3),"-",_xlfn.MAXIFS(ldf_seq_1!$E$2:$E$170,ldf_seq_1!$A$2:$A$170,AA$3))</f>
-        <v>19-19</v>
+        <v>2-2</v>
       </c>
       <c r="AB7" t="str">
         <f>_xlfn.CONCAT(_xlfn.MINIFS(ldf_seq_1!$E$2:$E$170,ldf_seq_1!$A$2:$A$170,AB$3),"-",_xlfn.MAXIFS(ldf_seq_1!$E$2:$E$170,ldf_seq_1!$A$2:$A$170,AB$3))</f>
-        <v>21-22</v>
+        <v>6-6</v>
       </c>
       <c r="AC7" t="str">
         <f>_xlfn.CONCAT(_xlfn.MINIFS(ldf_seq_1!$E$2:$E$170,ldf_seq_1!$A$2:$A$170,AC$3),"-",_xlfn.MAXIFS(ldf_seq_1!$E$2:$E$170,ldf_seq_1!$A$2:$A$170,AC$3))</f>
-        <v>3-3</v>
+        <v>78-78</v>
       </c>
       <c r="AD7" t="str">
         <f>_xlfn.CONCAT(_xlfn.MINIFS(ldf_seq_1!$E$2:$E$170,ldf_seq_1!$A$2:$A$170,AD$3),"-",_xlfn.MAXIFS(ldf_seq_1!$E$2:$E$170,ldf_seq_1!$A$2:$A$170,AD$3))</f>
-        <v>2-2</v>
+        <v>751-751</v>
       </c>
       <c r="AE7" t="str">
         <f>_xlfn.CONCAT(_xlfn.MINIFS(ldf_seq_1!$E$2:$E$170,ldf_seq_1!$A$2:$A$170,AE$3),"-",_xlfn.MAXIFS(ldf_seq_1!$E$2:$E$170,ldf_seq_1!$A$2:$A$170,AE$3))</f>
-        <v>6-6</v>
+        <v>4-4</v>
       </c>
       <c r="AF7" t="str">
         <f>_xlfn.CONCAT(_xlfn.MINIFS(ldf_seq_1!$E$2:$E$170,ldf_seq_1!$A$2:$A$170,AF$3),"-",_xlfn.MAXIFS(ldf_seq_1!$E$2:$E$170,ldf_seq_1!$A$2:$A$170,AF$3))</f>
-        <v>78-78</v>
+        <v>4-4</v>
       </c>
       <c r="AG7" t="str">
         <f>_xlfn.CONCAT(_xlfn.MINIFS(ldf_seq_1!$E$2:$E$170,ldf_seq_1!$A$2:$A$170,AG$3),"-",_xlfn.MAXIFS(ldf_seq_1!$E$2:$E$170,ldf_seq_1!$A$2:$A$170,AG$3))</f>
-        <v>751-751</v>
-      </c>
-      <c r="AH7" t="str">
-        <f>_xlfn.CONCAT(_xlfn.MINIFS(ldf_seq_1!$E$2:$E$170,ldf_seq_1!$A$2:$A$170,AH$3),"-",_xlfn.MAXIFS(ldf_seq_1!$E$2:$E$170,ldf_seq_1!$A$2:$A$170,AH$3))</f>
-        <v>4-4</v>
-      </c>
-      <c r="AI7" t="str">
-        <f>_xlfn.CONCAT(_xlfn.MINIFS(ldf_seq_1!$E$2:$E$170,ldf_seq_1!$A$2:$A$170,AI$3),"-",_xlfn.MAXIFS(ldf_seq_1!$E$2:$E$170,ldf_seq_1!$A$2:$A$170,AI$3))</f>
-        <v>4-4</v>
-      </c>
-      <c r="AJ7" t="str">
-        <f>_xlfn.CONCAT(_xlfn.MINIFS(ldf_seq_1!$E$2:$E$170,ldf_seq_1!$A$2:$A$170,AJ$3),"-",_xlfn.MAXIFS(ldf_seq_1!$E$2:$E$170,ldf_seq_1!$A$2:$A$170,AJ$3))</f>
         <v>6-6</v>
       </c>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C8" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
         <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="M8" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="N8" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="O8" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="P8" t="s">
         <v>47</v>
       </c>
       <c r="Q8" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="R8" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="S8" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="T8" t="s">
         <v>47</v>
       </c>
       <c r="U8" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="V8" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="W8" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="X8" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="Y8" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="Z8" t="s">
         <v>47</v>
       </c>
       <c r="AA8" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="AB8" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="AC8" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="AD8" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="AE8" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="AF8" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="AG8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>49</v>
       </c>
@@ -25283,50 +25263,38 @@
       </c>
       <c r="Z9" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$G$2:$G$170,ldf_seq_1!$A$2:$A$170,Z$3, ldf_seq_1!$D$2:$D$170,$B9)</f>
-        <v>128243.4</v>
+        <v>60080412.600000001</v>
       </c>
       <c r="AA9" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$G$2:$G$170,ldf_seq_1!$A$2:$A$170,AA$3, ldf_seq_1!$D$2:$D$170,$B9)</f>
-        <v>9819793.8000000007</v>
+        <v>5474277.5999999996</v>
       </c>
       <c r="AB9" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$G$2:$G$170,ldf_seq_1!$A$2:$A$170,AB$3, ldf_seq_1!$D$2:$D$170,$B9)</f>
-        <v>85910027.799999997</v>
+        <v>359.4</v>
       </c>
       <c r="AC9" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$G$2:$G$170,ldf_seq_1!$A$2:$A$170,AC$3, ldf_seq_1!$D$2:$D$170,$B9)</f>
-        <v>60080412.600000001</v>
+        <v>2414.8000000000002</v>
       </c>
       <c r="AD9" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$G$2:$G$170,ldf_seq_1!$A$2:$A$170,AD$3, ldf_seq_1!$D$2:$D$170,$B9)</f>
-        <v>5474277.5999999996</v>
+        <v>199376.2</v>
       </c>
       <c r="AE9" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$G$2:$G$170,ldf_seq_1!$A$2:$A$170,AE$3, ldf_seq_1!$D$2:$D$170,$B9)</f>
-        <v>359.4</v>
+        <v>71325.8</v>
       </c>
       <c r="AF9" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$G$2:$G$170,ldf_seq_1!$A$2:$A$170,AF$3, ldf_seq_1!$D$2:$D$170,$B9)</f>
-        <v>2414.8000000000002</v>
+        <v>36226</v>
       </c>
       <c r="AG9" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$G$2:$G$170,ldf_seq_1!$A$2:$A$170,AG$3, ldf_seq_1!$D$2:$D$170,$B9)</f>
-        <v>199376.2</v>
-      </c>
-      <c r="AH9" s="3">
-        <f>AVERAGEIFS(ldf_seq_1!$G$2:$G$170,ldf_seq_1!$A$2:$A$170,AH$3, ldf_seq_1!$D$2:$D$170,$B9)</f>
-        <v>71325.8</v>
-      </c>
-      <c r="AI9" s="3">
-        <f>AVERAGEIFS(ldf_seq_1!$G$2:$G$170,ldf_seq_1!$A$2:$A$170,AI$3, ldf_seq_1!$D$2:$D$170,$B9)</f>
-        <v>36226</v>
-      </c>
-      <c r="AJ9" s="3">
-        <f>AVERAGEIFS(ldf_seq_1!$G$2:$G$170,ldf_seq_1!$A$2:$A$170,AJ$3, ldf_seq_1!$D$2:$D$170,$B9)</f>
         <v>45922.6</v>
       </c>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
@@ -25423,50 +25391,38 @@
       </c>
       <c r="Z10" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$H$2:$H$170,ldf_seq_1!$A$2:$A$170,Z$3, ldf_seq_1!$D$2:$D$170,$B10)</f>
-        <v>405715.8</v>
+        <v>60390691.799999997</v>
       </c>
       <c r="AA10" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$H$2:$H$170,ldf_seq_1!$A$2:$A$170,AA$3, ldf_seq_1!$D$2:$D$170,$B10)</f>
-        <v>42331148</v>
+        <v>5510355.7999999998</v>
       </c>
       <c r="AB10" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$H$2:$H$170,ldf_seq_1!$A$2:$A$170,AB$3, ldf_seq_1!$D$2:$D$170,$B10)</f>
-        <v>405081845.39999998</v>
+        <v>112</v>
       </c>
       <c r="AC10" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$H$2:$H$170,ldf_seq_1!$A$2:$A$170,AC$3, ldf_seq_1!$D$2:$D$170,$B10)</f>
-        <v>60390691.799999997</v>
+        <v>8592.4</v>
       </c>
       <c r="AD10" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$H$2:$H$170,ldf_seq_1!$A$2:$A$170,AD$3, ldf_seq_1!$D$2:$D$170,$B10)</f>
-        <v>5510355.7999999998</v>
+        <v>1663873</v>
       </c>
       <c r="AE10" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$H$2:$H$170,ldf_seq_1!$A$2:$A$170,AE$3, ldf_seq_1!$D$2:$D$170,$B10)</f>
-        <v>112</v>
+        <v>29686.6</v>
       </c>
       <c r="AF10" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$H$2:$H$170,ldf_seq_1!$A$2:$A$170,AF$3, ldf_seq_1!$D$2:$D$170,$B10)</f>
-        <v>8592.4</v>
+        <v>20259.400000000001</v>
       </c>
       <c r="AG10" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$H$2:$H$170,ldf_seq_1!$A$2:$A$170,AG$3, ldf_seq_1!$D$2:$D$170,$B10)</f>
-        <v>1663873</v>
-      </c>
-      <c r="AH10" s="3">
-        <f>AVERAGEIFS(ldf_seq_1!$H$2:$H$170,ldf_seq_1!$A$2:$A$170,AH$3, ldf_seq_1!$D$2:$D$170,$B10)</f>
-        <v>29686.6</v>
-      </c>
-      <c r="AI10" s="3">
-        <f>AVERAGEIFS(ldf_seq_1!$H$2:$H$170,ldf_seq_1!$A$2:$A$170,AI$3, ldf_seq_1!$D$2:$D$170,$B10)</f>
-        <v>20259.400000000001</v>
-      </c>
-      <c r="AJ10" s="3">
-        <f>AVERAGEIFS(ldf_seq_1!$H$2:$H$170,ldf_seq_1!$A$2:$A$170,AJ$3, ldf_seq_1!$D$2:$D$170,$B10)</f>
         <v>58021.4</v>
       </c>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>49</v>
       </c>
@@ -25563,50 +25519,38 @@
       </c>
       <c r="Z11" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$I$2:$I$170,ldf_seq_1!$A$2:$A$170,Z$3, ldf_seq_1!$D$2:$D$170,$B11)</f>
-        <v>8518.6</v>
+        <v>4127553</v>
       </c>
       <c r="AA11" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$I$2:$I$170,ldf_seq_1!$A$2:$A$170,AA$3, ldf_seq_1!$D$2:$D$170,$B11)</f>
-        <v>916262</v>
+        <v>421339.8</v>
       </c>
       <c r="AB11" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$I$2:$I$170,ldf_seq_1!$A$2:$A$170,AB$3, ldf_seq_1!$D$2:$D$170,$B11)</f>
-        <v>6729962.4000000004</v>
+        <v>511</v>
       </c>
       <c r="AC11" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$I$2:$I$170,ldf_seq_1!$A$2:$A$170,AC$3, ldf_seq_1!$D$2:$D$170,$B11)</f>
-        <v>4127553</v>
+        <v>479</v>
       </c>
       <c r="AD11" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$I$2:$I$170,ldf_seq_1!$A$2:$A$170,AD$3, ldf_seq_1!$D$2:$D$170,$B11)</f>
-        <v>421339.8</v>
+        <v>714.6</v>
       </c>
       <c r="AE11" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$I$2:$I$170,ldf_seq_1!$A$2:$A$170,AE$3, ldf_seq_1!$D$2:$D$170,$B11)</f>
-        <v>511</v>
+        <v>2459</v>
       </c>
       <c r="AF11" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$I$2:$I$170,ldf_seq_1!$A$2:$A$170,AF$3, ldf_seq_1!$D$2:$D$170,$B11)</f>
-        <v>479</v>
+        <v>1724.8</v>
       </c>
       <c r="AG11" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$I$2:$I$170,ldf_seq_1!$A$2:$A$170,AG$3, ldf_seq_1!$D$2:$D$170,$B11)</f>
-        <v>714.6</v>
-      </c>
-      <c r="AH11" s="3">
-        <f>AVERAGEIFS(ldf_seq_1!$I$2:$I$170,ldf_seq_1!$A$2:$A$170,AH$3, ldf_seq_1!$D$2:$D$170,$B11)</f>
-        <v>2459</v>
-      </c>
-      <c r="AI11" s="3">
-        <f>AVERAGEIFS(ldf_seq_1!$I$2:$I$170,ldf_seq_1!$A$2:$A$170,AI$3, ldf_seq_1!$D$2:$D$170,$B11)</f>
-        <v>1724.8</v>
-      </c>
-      <c r="AJ11" s="3">
-        <f>AVERAGEIFS(ldf_seq_1!$I$2:$I$170,ldf_seq_1!$A$2:$A$170,AJ$3, ldf_seq_1!$D$2:$D$170,$B11)</f>
         <v>1946.4</v>
       </c>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>49</v>
       </c>
@@ -25703,46 +25647,34 @@
       </c>
       <c r="Z12" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$F$2:$F$170,ldf_seq_1!$A$2:$A$170,Z$3, ldf_seq_1!$D$2:$D$170,$B12)</f>
-        <v>542478.80000000005</v>
+        <v>124598658.2</v>
       </c>
       <c r="AA12" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$F$2:$F$170,ldf_seq_1!$A$2:$A$170,AA$3, ldf_seq_1!$D$2:$D$170,$B12)</f>
-        <v>53067204.799999997</v>
+        <v>11405974.199999999</v>
       </c>
       <c r="AB12" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$F$2:$F$170,ldf_seq_1!$A$2:$A$170,AB$3, ldf_seq_1!$D$2:$D$170,$B12)</f>
-        <v>497721836.60000002</v>
+        <v>983.8</v>
       </c>
       <c r="AC12" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$F$2:$F$170,ldf_seq_1!$A$2:$A$170,AC$3, ldf_seq_1!$D$2:$D$170,$B12)</f>
-        <v>124598658.2</v>
+        <v>11487.2</v>
       </c>
       <c r="AD12" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$F$2:$F$170,ldf_seq_1!$A$2:$A$170,AD$3, ldf_seq_1!$D$2:$D$170,$B12)</f>
-        <v>11405974.199999999</v>
+        <v>1863965.2</v>
       </c>
       <c r="AE12" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$F$2:$F$170,ldf_seq_1!$A$2:$A$170,AE$3, ldf_seq_1!$D$2:$D$170,$B12)</f>
-        <v>983.8</v>
+        <v>103472</v>
       </c>
       <c r="AF12" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$F$2:$F$170,ldf_seq_1!$A$2:$A$170,AF$3, ldf_seq_1!$D$2:$D$170,$B12)</f>
-        <v>11487.2</v>
+        <v>58211.6</v>
       </c>
       <c r="AG12" s="3">
         <f>AVERAGEIFS(ldf_seq_1!$F$2:$F$170,ldf_seq_1!$A$2:$A$170,AG$3, ldf_seq_1!$D$2:$D$170,$B12)</f>
-        <v>1863965.2</v>
-      </c>
-      <c r="AH12" s="3">
-        <f>AVERAGEIFS(ldf_seq_1!$F$2:$F$170,ldf_seq_1!$A$2:$A$170,AH$3, ldf_seq_1!$D$2:$D$170,$B12)</f>
-        <v>103472</v>
-      </c>
-      <c r="AI12" s="3">
-        <f>AVERAGEIFS(ldf_seq_1!$F$2:$F$170,ldf_seq_1!$A$2:$A$170,AI$3, ldf_seq_1!$D$2:$D$170,$B12)</f>
-        <v>58211.6</v>
-      </c>
-      <c r="AJ12" s="3">
-        <f>AVERAGEIFS(ldf_seq_1!$F$2:$F$170,ldf_seq_1!$A$2:$A$170,AJ$3, ldf_seq_1!$D$2:$D$170,$B12)</f>
         <v>105891.6</v>
       </c>
     </row>

--- a/raw_data/excel_report_second.xlsx
+++ b/raw_data/excel_report_second.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giuseppe/Documents/SDP/3.Project/nuova/GraphColoringQ1/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Master Local\GraphColoringQ1\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674816B4-F006-2644-B08F-46974E89A292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F87789-0ADA-4067-8919-89E13462CD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="732" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="732" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jones_seq_1" sheetId="9" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="107">
   <si>
     <t>Column1</t>
   </si>
@@ -330,9 +330,6 @@
     <t>6.3 MB</t>
   </si>
   <si>
-    <t>475.0 MB</t>
-  </si>
-  <si>
     <t>13.1 MB</t>
   </si>
   <si>
@@ -382,6 +379,24 @@
   </si>
   <si>
     <t>5.7 MB</t>
+  </si>
+  <si>
+    <t>2764.3 MB</t>
+  </si>
+  <si>
+    <t>2467.1 MB</t>
+  </si>
+  <si>
+    <t>1928.5 MB</t>
+  </si>
+  <si>
+    <t>3.8 MB</t>
+  </si>
+  <si>
+    <t>1945.9 MB</t>
+  </si>
+  <si>
+    <t>3726.2 MB</t>
   </si>
 </sst>
 </file>
@@ -441,7 +456,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -912,14 +927,14 @@
   <sheetViews>
     <sheetView topLeftCell="A149" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -951,7 +966,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -983,7 +998,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1015,7 +1030,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1047,7 +1062,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1079,7 +1094,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1111,7 +1126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1143,7 +1158,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1175,7 +1190,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1207,7 +1222,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1239,7 +1254,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1271,7 +1286,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1303,7 +1318,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1335,7 +1350,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1367,7 +1382,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1399,7 +1414,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1431,7 +1446,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1463,7 +1478,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1495,7 +1510,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1527,7 +1542,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1559,7 +1574,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1591,7 +1606,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1623,7 +1638,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1655,7 +1670,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1687,7 +1702,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1719,7 +1734,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -1751,7 +1766,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -1783,7 +1798,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
@@ -1815,7 +1830,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -1847,7 +1862,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -1879,7 +1894,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -1911,7 +1926,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -1943,7 +1958,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -1975,7 +1990,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -2007,7 +2022,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -2039,7 +2054,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -2071,7 +2086,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -2103,7 +2118,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -2135,7 +2150,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
@@ -2167,7 +2182,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -2199,7 +2214,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
@@ -2231,7 +2246,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -2263,7 +2278,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -2295,7 +2310,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -2327,7 +2342,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -2359,7 +2374,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -2391,7 +2406,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -2423,7 +2438,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -2455,7 +2470,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -2487,7 +2502,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -2519,7 +2534,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -2551,7 +2566,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
@@ -2583,7 +2598,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
@@ -2615,7 +2630,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>22</v>
       </c>
@@ -2647,7 +2662,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
@@ -2679,7 +2694,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>22</v>
       </c>
@@ -2711,7 +2726,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>23</v>
       </c>
@@ -2743,7 +2758,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>23</v>
       </c>
@@ -2775,7 +2790,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>23</v>
       </c>
@@ -2807,7 +2822,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>23</v>
       </c>
@@ -2839,7 +2854,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>23</v>
       </c>
@@ -2871,7 +2886,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>24</v>
       </c>
@@ -2903,7 +2918,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>24</v>
       </c>
@@ -2935,7 +2950,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>24</v>
       </c>
@@ -2967,7 +2982,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
@@ -2999,7 +3014,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>24</v>
       </c>
@@ -3031,7 +3046,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>25</v>
       </c>
@@ -3063,7 +3078,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>25</v>
       </c>
@@ -3095,7 +3110,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>25</v>
       </c>
@@ -3127,7 +3142,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
@@ -3159,7 +3174,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>25</v>
       </c>
@@ -3191,7 +3206,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>26</v>
       </c>
@@ -3223,7 +3238,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>26</v>
       </c>
@@ -3255,7 +3270,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>26</v>
       </c>
@@ -3287,7 +3302,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>26</v>
       </c>
@@ -3319,7 +3334,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>26</v>
       </c>
@@ -3351,7 +3366,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>27</v>
       </c>
@@ -3383,7 +3398,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>27</v>
       </c>
@@ -3415,7 +3430,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>27</v>
       </c>
@@ -3447,7 +3462,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>27</v>
       </c>
@@ -3479,7 +3494,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>27</v>
       </c>
@@ -3511,7 +3526,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>28</v>
       </c>
@@ -3543,7 +3558,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>28</v>
       </c>
@@ -3575,7 +3590,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>28</v>
       </c>
@@ -3607,7 +3622,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>28</v>
       </c>
@@ -3639,7 +3654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>28</v>
       </c>
@@ -3671,7 +3686,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>29</v>
       </c>
@@ -3703,7 +3718,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>29</v>
       </c>
@@ -3735,7 +3750,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>29</v>
       </c>
@@ -3767,7 +3782,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>29</v>
       </c>
@@ -3799,7 +3814,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>29</v>
       </c>
@@ -3831,7 +3846,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>30</v>
       </c>
@@ -3863,7 +3878,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>30</v>
       </c>
@@ -3895,7 +3910,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>30</v>
       </c>
@@ -3927,7 +3942,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>30</v>
       </c>
@@ -3959,7 +3974,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>30</v>
       </c>
@@ -3991,7 +4006,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>31</v>
       </c>
@@ -4023,7 +4038,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>31</v>
       </c>
@@ -4055,7 +4070,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>31</v>
       </c>
@@ -4087,7 +4102,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>31</v>
       </c>
@@ -4119,7 +4134,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>31</v>
       </c>
@@ -4151,7 +4166,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>51</v>
       </c>
@@ -4183,7 +4198,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>51</v>
       </c>
@@ -4215,7 +4230,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>51</v>
       </c>
@@ -4247,7 +4262,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>51</v>
       </c>
@@ -4279,7 +4294,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>51</v>
       </c>
@@ -4311,7 +4326,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>32</v>
       </c>
@@ -4343,7 +4358,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>32</v>
       </c>
@@ -4375,7 +4390,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>32</v>
       </c>
@@ -4407,7 +4422,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>32</v>
       </c>
@@ -4439,7 +4454,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>32</v>
       </c>
@@ -4471,7 +4486,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>33</v>
       </c>
@@ -4503,7 +4518,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>33</v>
       </c>
@@ -4535,7 +4550,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>33</v>
       </c>
@@ -4567,7 +4582,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>33</v>
       </c>
@@ -4599,7 +4614,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>33</v>
       </c>
@@ -4631,7 +4646,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>34</v>
       </c>
@@ -4663,7 +4678,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>34</v>
       </c>
@@ -4695,7 +4710,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>34</v>
       </c>
@@ -4727,7 +4742,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>34</v>
       </c>
@@ -4759,7 +4774,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>34</v>
       </c>
@@ -4791,7 +4806,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>35</v>
       </c>
@@ -4823,7 +4838,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>35</v>
       </c>
@@ -4855,7 +4870,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>35</v>
       </c>
@@ -4887,7 +4902,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>35</v>
       </c>
@@ -4919,7 +4934,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>35</v>
       </c>
@@ -4951,7 +4966,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>36</v>
       </c>
@@ -4983,7 +4998,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>36</v>
       </c>
@@ -5015,7 +5030,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>36</v>
       </c>
@@ -5047,7 +5062,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>36</v>
       </c>
@@ -5079,7 +5094,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>36</v>
       </c>
@@ -5111,7 +5126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>37</v>
       </c>
@@ -5143,7 +5158,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>37</v>
       </c>
@@ -5175,7 +5190,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>37</v>
       </c>
@@ -5207,7 +5222,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>37</v>
       </c>
@@ -5239,7 +5254,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>37</v>
       </c>
@@ -5271,7 +5286,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>38</v>
       </c>
@@ -5303,7 +5318,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>38</v>
       </c>
@@ -5335,7 +5350,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>38</v>
       </c>
@@ -5367,7 +5382,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>38</v>
       </c>
@@ -5399,7 +5414,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>38</v>
       </c>
@@ -5431,7 +5446,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>9</v>
       </c>
@@ -5463,7 +5478,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>9</v>
       </c>
@@ -5495,7 +5510,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>9</v>
       </c>
@@ -5527,7 +5542,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>9</v>
       </c>
@@ -5559,7 +5574,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>9</v>
       </c>
@@ -5591,7 +5606,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>10</v>
       </c>
@@ -5623,7 +5638,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>10</v>
       </c>
@@ -5655,7 +5670,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>10</v>
       </c>
@@ -5687,7 +5702,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>10</v>
       </c>
@@ -5719,7 +5734,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>10</v>
       </c>
@@ -5751,7 +5766,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>11</v>
       </c>
@@ -5783,7 +5798,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>11</v>
       </c>
@@ -5815,7 +5830,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>11</v>
       </c>
@@ -5847,7 +5862,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>11</v>
       </c>
@@ -5879,7 +5894,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>11</v>
       </c>
@@ -5925,14 +5940,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5964,7 +5979,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -5996,7 +6011,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -6028,7 +6043,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -6060,7 +6075,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -6092,7 +6107,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -6124,7 +6139,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -6156,7 +6171,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -6188,7 +6203,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -6220,7 +6235,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -6252,7 +6267,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -6284,7 +6299,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -6316,7 +6331,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -6348,7 +6363,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -6380,7 +6395,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -6412,7 +6427,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -6444,7 +6459,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -6476,7 +6491,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -6508,7 +6523,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -6540,7 +6555,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -6572,7 +6587,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -6604,7 +6619,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -6636,7 +6651,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -6668,7 +6683,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -6700,7 +6715,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -6732,7 +6747,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -6764,7 +6779,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -6796,7 +6811,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
@@ -6828,7 +6843,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -6860,7 +6875,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -6892,7 +6907,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -6924,7 +6939,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -6956,7 +6971,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -6988,7 +7003,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -7020,7 +7035,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -7052,7 +7067,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -7084,7 +7099,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -7116,7 +7131,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -7148,7 +7163,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
@@ -7180,7 +7195,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -7212,7 +7227,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
@@ -7244,7 +7259,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -7276,7 +7291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -7308,7 +7323,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -7340,7 +7355,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -7372,7 +7387,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -7404,7 +7419,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -7436,7 +7451,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -7468,7 +7483,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -7500,7 +7515,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -7532,7 +7547,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -7564,7 +7579,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
@@ -7596,7 +7611,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
@@ -7628,7 +7643,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>22</v>
       </c>
@@ -7660,7 +7675,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
@@ -7692,7 +7707,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>22</v>
       </c>
@@ -7724,7 +7739,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>23</v>
       </c>
@@ -7756,7 +7771,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>23</v>
       </c>
@@ -7788,7 +7803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>23</v>
       </c>
@@ -7820,7 +7835,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>23</v>
       </c>
@@ -7852,7 +7867,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>23</v>
       </c>
@@ -7884,7 +7899,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>24</v>
       </c>
@@ -7916,7 +7931,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>24</v>
       </c>
@@ -7948,7 +7963,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>24</v>
       </c>
@@ -7980,7 +7995,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
@@ -8012,7 +8027,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>24</v>
       </c>
@@ -8044,7 +8059,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>25</v>
       </c>
@@ -8076,7 +8091,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>25</v>
       </c>
@@ -8108,7 +8123,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>25</v>
       </c>
@@ -8140,7 +8155,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
@@ -8172,7 +8187,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>25</v>
       </c>
@@ -8204,7 +8219,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>26</v>
       </c>
@@ -8236,7 +8251,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>26</v>
       </c>
@@ -8268,7 +8283,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>26</v>
       </c>
@@ -8300,7 +8315,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>26</v>
       </c>
@@ -8332,7 +8347,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>26</v>
       </c>
@@ -8364,7 +8379,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>27</v>
       </c>
@@ -8396,7 +8411,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>27</v>
       </c>
@@ -8428,7 +8443,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>27</v>
       </c>
@@ -8460,7 +8475,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>27</v>
       </c>
@@ -8492,7 +8507,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>27</v>
       </c>
@@ -8524,7 +8539,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>28</v>
       </c>
@@ -8556,7 +8571,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>28</v>
       </c>
@@ -8588,7 +8603,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>28</v>
       </c>
@@ -8620,7 +8635,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>28</v>
       </c>
@@ -8652,7 +8667,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>28</v>
       </c>
@@ -8684,7 +8699,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>29</v>
       </c>
@@ -8716,7 +8731,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>29</v>
       </c>
@@ -8748,7 +8763,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>29</v>
       </c>
@@ -8780,7 +8795,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>29</v>
       </c>
@@ -8812,7 +8827,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>29</v>
       </c>
@@ -8844,7 +8859,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>30</v>
       </c>
@@ -8876,7 +8891,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>30</v>
       </c>
@@ -8908,7 +8923,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>30</v>
       </c>
@@ -8940,7 +8955,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>30</v>
       </c>
@@ -8972,7 +8987,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>30</v>
       </c>
@@ -9004,7 +9019,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>31</v>
       </c>
@@ -9036,7 +9051,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>31</v>
       </c>
@@ -9068,7 +9083,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>31</v>
       </c>
@@ -9100,7 +9115,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>31</v>
       </c>
@@ -9132,7 +9147,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>31</v>
       </c>
@@ -9164,7 +9179,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>51</v>
       </c>
@@ -9196,7 +9211,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>51</v>
       </c>
@@ -9228,7 +9243,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>51</v>
       </c>
@@ -9260,7 +9275,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>51</v>
       </c>
@@ -9292,7 +9307,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>51</v>
       </c>
@@ -9324,7 +9339,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>32</v>
       </c>
@@ -9356,7 +9371,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>32</v>
       </c>
@@ -9388,7 +9403,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>32</v>
       </c>
@@ -9420,7 +9435,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>32</v>
       </c>
@@ -9452,7 +9467,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>32</v>
       </c>
@@ -9484,7 +9499,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>33</v>
       </c>
@@ -9516,7 +9531,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>33</v>
       </c>
@@ -9548,7 +9563,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>33</v>
       </c>
@@ -9580,7 +9595,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>33</v>
       </c>
@@ -9612,7 +9627,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>33</v>
       </c>
@@ -9644,7 +9659,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>34</v>
       </c>
@@ -9676,7 +9691,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>34</v>
       </c>
@@ -9708,7 +9723,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>34</v>
       </c>
@@ -9740,7 +9755,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>34</v>
       </c>
@@ -9772,7 +9787,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>34</v>
       </c>
@@ -9804,7 +9819,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>35</v>
       </c>
@@ -9836,7 +9851,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>35</v>
       </c>
@@ -9868,7 +9883,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>35</v>
       </c>
@@ -9900,7 +9915,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>35</v>
       </c>
@@ -9932,7 +9947,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>35</v>
       </c>
@@ -9964,7 +9979,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>36</v>
       </c>
@@ -9996,7 +10011,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>36</v>
       </c>
@@ -10028,7 +10043,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>36</v>
       </c>
@@ -10060,7 +10075,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>36</v>
       </c>
@@ -10092,7 +10107,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>36</v>
       </c>
@@ -10124,7 +10139,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>37</v>
       </c>
@@ -10156,7 +10171,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>37</v>
       </c>
@@ -10188,7 +10203,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>37</v>
       </c>
@@ -10220,7 +10235,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>37</v>
       </c>
@@ -10252,7 +10267,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>37</v>
       </c>
@@ -10284,7 +10299,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>38</v>
       </c>
@@ -10316,7 +10331,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>38</v>
       </c>
@@ -10348,7 +10363,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>38</v>
       </c>
@@ -10380,7 +10395,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>38</v>
       </c>
@@ -10412,7 +10427,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>38</v>
       </c>
@@ -10444,7 +10459,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>9</v>
       </c>
@@ -10476,7 +10491,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>9</v>
       </c>
@@ -10508,7 +10523,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>9</v>
       </c>
@@ -10540,7 +10555,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>9</v>
       </c>
@@ -10572,7 +10587,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>9</v>
       </c>
@@ -10604,7 +10619,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>10</v>
       </c>
@@ -10636,7 +10651,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>10</v>
       </c>
@@ -10668,7 +10683,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>10</v>
       </c>
@@ -10700,7 +10715,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>10</v>
       </c>
@@ -10732,7 +10747,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>10</v>
       </c>
@@ -10764,7 +10779,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>11</v>
       </c>
@@ -10796,7 +10811,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>11</v>
       </c>
@@ -10828,7 +10843,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>11</v>
       </c>
@@ -10860,7 +10875,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>11</v>
       </c>
@@ -10892,7 +10907,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>11</v>
       </c>
@@ -10938,14 +10953,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10977,7 +10992,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -11009,7 +11024,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -11041,7 +11056,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -11073,7 +11088,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -11105,7 +11120,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -11137,7 +11152,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -11169,7 +11184,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -11201,7 +11216,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -11233,7 +11248,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -11265,7 +11280,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -11297,7 +11312,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -11329,7 +11344,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -11361,7 +11376,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -11393,7 +11408,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -11425,7 +11440,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -11457,7 +11472,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -11489,7 +11504,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -11521,7 +11536,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -11553,7 +11568,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -11585,7 +11600,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -11617,7 +11632,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -11649,7 +11664,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -11681,7 +11696,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -11713,7 +11728,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -11745,7 +11760,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -11777,7 +11792,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -11809,7 +11824,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
@@ -11841,7 +11856,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -11873,7 +11888,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -11905,7 +11920,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -11937,7 +11952,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -11969,7 +11984,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -12001,7 +12016,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -12033,7 +12048,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -12065,7 +12080,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -12097,7 +12112,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -12129,7 +12144,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -12161,7 +12176,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
@@ -12193,7 +12208,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -12225,7 +12240,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
@@ -12257,7 +12272,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -12289,7 +12304,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -12321,7 +12336,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -12353,7 +12368,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -12385,7 +12400,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -12417,7 +12432,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -12449,7 +12464,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -12481,7 +12496,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -12513,7 +12528,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -12545,7 +12560,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -12577,7 +12592,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
@@ -12609,7 +12624,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
@@ -12641,7 +12656,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>22</v>
       </c>
@@ -12673,7 +12688,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
@@ -12705,7 +12720,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>22</v>
       </c>
@@ -12737,7 +12752,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>23</v>
       </c>
@@ -12769,7 +12784,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>23</v>
       </c>
@@ -12801,7 +12816,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>23</v>
       </c>
@@ -12833,7 +12848,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>23</v>
       </c>
@@ -12865,7 +12880,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>23</v>
       </c>
@@ -12897,7 +12912,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>24</v>
       </c>
@@ -12929,7 +12944,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>24</v>
       </c>
@@ -12961,7 +12976,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>24</v>
       </c>
@@ -12993,7 +13008,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
@@ -13025,7 +13040,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>24</v>
       </c>
@@ -13057,7 +13072,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>25</v>
       </c>
@@ -13089,7 +13104,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>25</v>
       </c>
@@ -13121,7 +13136,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>25</v>
       </c>
@@ -13153,7 +13168,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
@@ -13185,7 +13200,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>25</v>
       </c>
@@ -13217,7 +13232,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>26</v>
       </c>
@@ -13249,7 +13264,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>26</v>
       </c>
@@ -13281,7 +13296,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>26</v>
       </c>
@@ -13313,7 +13328,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>26</v>
       </c>
@@ -13345,7 +13360,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>26</v>
       </c>
@@ -13377,7 +13392,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>27</v>
       </c>
@@ -13409,7 +13424,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>27</v>
       </c>
@@ -13441,7 +13456,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>27</v>
       </c>
@@ -13473,7 +13488,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>27</v>
       </c>
@@ -13505,7 +13520,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>27</v>
       </c>
@@ -13537,7 +13552,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>28</v>
       </c>
@@ -13569,7 +13584,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>28</v>
       </c>
@@ -13601,7 +13616,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>28</v>
       </c>
@@ -13633,7 +13648,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>28</v>
       </c>
@@ -13665,7 +13680,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>28</v>
       </c>
@@ -13697,7 +13712,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>29</v>
       </c>
@@ -13729,7 +13744,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>29</v>
       </c>
@@ -13761,7 +13776,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>29</v>
       </c>
@@ -13793,7 +13808,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>29</v>
       </c>
@@ -13825,7 +13840,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>29</v>
       </c>
@@ -13857,7 +13872,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>30</v>
       </c>
@@ -13889,7 +13904,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>30</v>
       </c>
@@ -13921,7 +13936,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>30</v>
       </c>
@@ -13953,7 +13968,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>30</v>
       </c>
@@ -13985,7 +14000,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>30</v>
       </c>
@@ -14017,7 +14032,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>31</v>
       </c>
@@ -14049,7 +14064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>31</v>
       </c>
@@ -14081,7 +14096,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>31</v>
       </c>
@@ -14113,7 +14128,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>31</v>
       </c>
@@ -14145,7 +14160,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>31</v>
       </c>
@@ -14177,7 +14192,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>51</v>
       </c>
@@ -14209,7 +14224,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>51</v>
       </c>
@@ -14241,7 +14256,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>51</v>
       </c>
@@ -14273,7 +14288,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>51</v>
       </c>
@@ -14305,7 +14320,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>51</v>
       </c>
@@ -14337,7 +14352,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>32</v>
       </c>
@@ -14369,7 +14384,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>32</v>
       </c>
@@ -14401,7 +14416,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>32</v>
       </c>
@@ -14433,7 +14448,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>32</v>
       </c>
@@ -14465,7 +14480,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>32</v>
       </c>
@@ -14497,7 +14512,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>33</v>
       </c>
@@ -14529,7 +14544,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>33</v>
       </c>
@@ -14561,7 +14576,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>33</v>
       </c>
@@ -14593,7 +14608,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>33</v>
       </c>
@@ -14625,7 +14640,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>33</v>
       </c>
@@ -14657,7 +14672,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>34</v>
       </c>
@@ -14689,7 +14704,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>34</v>
       </c>
@@ -14721,7 +14736,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>34</v>
       </c>
@@ -14753,7 +14768,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>34</v>
       </c>
@@ -14785,7 +14800,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>34</v>
       </c>
@@ -14817,7 +14832,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>35</v>
       </c>
@@ -14849,7 +14864,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>35</v>
       </c>
@@ -14881,7 +14896,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>35</v>
       </c>
@@ -14913,7 +14928,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>35</v>
       </c>
@@ -14945,7 +14960,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>35</v>
       </c>
@@ -14977,7 +14992,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>36</v>
       </c>
@@ -15009,7 +15024,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>36</v>
       </c>
@@ -15041,7 +15056,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>36</v>
       </c>
@@ -15073,7 +15088,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>36</v>
       </c>
@@ -15105,7 +15120,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>36</v>
       </c>
@@ -15137,7 +15152,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>37</v>
       </c>
@@ -15169,7 +15184,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>37</v>
       </c>
@@ -15201,7 +15216,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>37</v>
       </c>
@@ -15233,7 +15248,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>37</v>
       </c>
@@ -15265,7 +15280,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>37</v>
       </c>
@@ -15297,7 +15312,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>38</v>
       </c>
@@ -15329,7 +15344,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>38</v>
       </c>
@@ -15361,7 +15376,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>38</v>
       </c>
@@ -15393,7 +15408,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>38</v>
       </c>
@@ -15425,7 +15440,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>38</v>
       </c>
@@ -15457,7 +15472,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>9</v>
       </c>
@@ -15489,7 +15504,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>9</v>
       </c>
@@ -15521,7 +15536,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>9</v>
       </c>
@@ -15553,7 +15568,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>9</v>
       </c>
@@ -15585,7 +15600,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>9</v>
       </c>
@@ -15617,7 +15632,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>10</v>
       </c>
@@ -15649,7 +15664,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>10</v>
       </c>
@@ -15681,7 +15696,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>10</v>
       </c>
@@ -15713,7 +15728,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>10</v>
       </c>
@@ -15745,7 +15760,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>10</v>
       </c>
@@ -15777,7 +15792,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>11</v>
       </c>
@@ -15809,7 +15824,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>11</v>
       </c>
@@ -15841,7 +15856,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>11</v>
       </c>
@@ -15873,7 +15888,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>11</v>
       </c>
@@ -15905,7 +15920,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>11</v>
       </c>
@@ -15953,14 +15968,14 @@
       <selection activeCell="F17" sqref="F17:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15992,7 +16007,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -16024,7 +16039,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -16056,7 +16071,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -16088,7 +16103,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -16120,7 +16135,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -16152,7 +16167,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -16184,7 +16199,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -16216,7 +16231,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -16248,7 +16263,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -16280,7 +16295,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -16312,7 +16327,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -16344,7 +16359,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -16376,7 +16391,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -16408,7 +16423,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -16440,7 +16455,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -16472,7 +16487,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -16504,7 +16519,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -16536,7 +16551,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -16568,7 +16583,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -16600,7 +16615,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -16632,7 +16647,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -16664,7 +16679,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -16696,7 +16711,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -16728,7 +16743,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -16760,7 +16775,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -16792,7 +16807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -16824,7 +16839,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
@@ -16856,7 +16871,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -16888,7 +16903,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -16920,7 +16935,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -16952,7 +16967,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -16984,7 +16999,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -17016,7 +17031,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -17048,7 +17063,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -17080,7 +17095,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -17112,7 +17127,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -17144,7 +17159,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -17176,7 +17191,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
@@ -17208,7 +17223,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -17240,7 +17255,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
@@ -17272,7 +17287,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -17304,7 +17319,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -17336,7 +17351,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -17368,7 +17383,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -17400,7 +17415,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -17432,7 +17447,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -17464,7 +17479,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -17496,7 +17511,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -17528,7 +17543,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -17560,7 +17575,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -17592,7 +17607,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
@@ -17624,7 +17639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
@@ -17656,7 +17671,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>22</v>
       </c>
@@ -17688,7 +17703,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
@@ -17720,7 +17735,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>22</v>
       </c>
@@ -17752,7 +17767,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>23</v>
       </c>
@@ -17784,7 +17799,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>23</v>
       </c>
@@ -17816,7 +17831,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>23</v>
       </c>
@@ -17848,7 +17863,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>23</v>
       </c>
@@ -17880,7 +17895,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>23</v>
       </c>
@@ -17912,7 +17927,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>24</v>
       </c>
@@ -17944,7 +17959,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>24</v>
       </c>
@@ -17976,7 +17991,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>24</v>
       </c>
@@ -18008,7 +18023,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
@@ -18040,7 +18055,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>24</v>
       </c>
@@ -18072,7 +18087,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>25</v>
       </c>
@@ -18104,7 +18119,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>25</v>
       </c>
@@ -18136,7 +18151,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>25</v>
       </c>
@@ -18168,7 +18183,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
@@ -18200,7 +18215,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>25</v>
       </c>
@@ -18232,7 +18247,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>26</v>
       </c>
@@ -18264,7 +18279,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>26</v>
       </c>
@@ -18296,7 +18311,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>26</v>
       </c>
@@ -18328,7 +18343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>26</v>
       </c>
@@ -18360,7 +18375,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>26</v>
       </c>
@@ -18392,7 +18407,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>27</v>
       </c>
@@ -18424,7 +18439,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>27</v>
       </c>
@@ -18456,7 +18471,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>27</v>
       </c>
@@ -18488,7 +18503,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>27</v>
       </c>
@@ -18520,7 +18535,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>27</v>
       </c>
@@ -18552,7 +18567,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>28</v>
       </c>
@@ -18584,7 +18599,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>28</v>
       </c>
@@ -18616,7 +18631,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>28</v>
       </c>
@@ -18648,7 +18663,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>28</v>
       </c>
@@ -18680,7 +18695,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>28</v>
       </c>
@@ -18712,7 +18727,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>29</v>
       </c>
@@ -18744,7 +18759,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>29</v>
       </c>
@@ -18776,7 +18791,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>29</v>
       </c>
@@ -18808,7 +18823,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>29</v>
       </c>
@@ -18840,7 +18855,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>29</v>
       </c>
@@ -18872,7 +18887,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>30</v>
       </c>
@@ -18904,7 +18919,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>30</v>
       </c>
@@ -18936,7 +18951,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>30</v>
       </c>
@@ -18968,7 +18983,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>30</v>
       </c>
@@ -19000,7 +19015,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>30</v>
       </c>
@@ -19032,7 +19047,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>31</v>
       </c>
@@ -19064,7 +19079,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>31</v>
       </c>
@@ -19096,7 +19111,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>31</v>
       </c>
@@ -19128,7 +19143,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>31</v>
       </c>
@@ -19160,7 +19175,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>31</v>
       </c>
@@ -19192,7 +19207,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>51</v>
       </c>
@@ -19224,7 +19239,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>51</v>
       </c>
@@ -19256,7 +19271,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>51</v>
       </c>
@@ -19288,7 +19303,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>51</v>
       </c>
@@ -19320,7 +19335,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>51</v>
       </c>
@@ -19352,7 +19367,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>32</v>
       </c>
@@ -19384,7 +19399,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>32</v>
       </c>
@@ -19416,7 +19431,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>32</v>
       </c>
@@ -19448,7 +19463,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>32</v>
       </c>
@@ -19480,7 +19495,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>32</v>
       </c>
@@ -19512,7 +19527,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>33</v>
       </c>
@@ -19544,7 +19559,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>33</v>
       </c>
@@ -19576,7 +19591,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>33</v>
       </c>
@@ -19608,7 +19623,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>33</v>
       </c>
@@ -19640,7 +19655,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>33</v>
       </c>
@@ -19672,7 +19687,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>34</v>
       </c>
@@ -19704,7 +19719,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>34</v>
       </c>
@@ -19736,7 +19751,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>34</v>
       </c>
@@ -19768,7 +19783,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>34</v>
       </c>
@@ -19800,7 +19815,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>34</v>
       </c>
@@ -19832,7 +19847,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>35</v>
       </c>
@@ -19864,7 +19879,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>35</v>
       </c>
@@ -19896,7 +19911,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>35</v>
       </c>
@@ -19928,7 +19943,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>35</v>
       </c>
@@ -19960,7 +19975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>35</v>
       </c>
@@ -19992,7 +20007,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>36</v>
       </c>
@@ -20024,7 +20039,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>36</v>
       </c>
@@ -20056,7 +20071,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>36</v>
       </c>
@@ -20088,7 +20103,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>36</v>
       </c>
@@ -20120,7 +20135,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>36</v>
       </c>
@@ -20152,7 +20167,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>37</v>
       </c>
@@ -20184,7 +20199,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>37</v>
       </c>
@@ -20216,7 +20231,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>37</v>
       </c>
@@ -20248,7 +20263,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>37</v>
       </c>
@@ -20280,7 +20295,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>37</v>
       </c>
@@ -20312,7 +20327,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>38</v>
       </c>
@@ -20344,7 +20359,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>38</v>
       </c>
@@ -20376,7 +20391,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>38</v>
       </c>
@@ -20408,7 +20423,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>38</v>
       </c>
@@ -20440,7 +20455,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>38</v>
       </c>
@@ -20472,7 +20487,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>9</v>
       </c>
@@ -20504,7 +20519,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>9</v>
       </c>
@@ -20536,7 +20551,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>9</v>
       </c>
@@ -20568,7 +20583,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>9</v>
       </c>
@@ -20600,7 +20615,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>9</v>
       </c>
@@ -20632,7 +20647,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>10</v>
       </c>
@@ -20664,7 +20679,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>10</v>
       </c>
@@ -20696,7 +20711,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>10</v>
       </c>
@@ -20728,7 +20743,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>10</v>
       </c>
@@ -20760,7 +20775,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>10</v>
       </c>
@@ -20792,7 +20807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>11</v>
       </c>
@@ -20824,7 +20839,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>11</v>
       </c>
@@ -20856,7 +20871,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>11</v>
       </c>
@@ -20888,7 +20903,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>11</v>
       </c>
@@ -20920,7 +20935,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>11</v>
       </c>
@@ -20965,51 +20980,51 @@
   <dimension ref="B1:AJ12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C1" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
@@ -21110,7 +21125,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>39</v>
       </c>
@@ -21247,7 +21262,7 @@
         <v>6642</v>
       </c>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
@@ -21384,7 +21399,7 @@
         <v>84784</v>
       </c>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>41</v>
       </c>
@@ -21521,7 +21536,7 @@
         <v>53-55</v>
       </c>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>42</v>
       </c>
@@ -21625,7 +21640,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>49</v>
       </c>
@@ -21765,7 +21780,7 @@
         <v>43983.4</v>
       </c>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
@@ -21905,7 +21920,7 @@
         <v>34144.400000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>49</v>
       </c>
@@ -22045,7 +22060,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>49</v>
       </c>
@@ -22195,54 +22210,53 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DB7630-DF52-48BE-8A6F-B7F822D8062B}">
-  <dimension ref="B1:AJ12"/>
+  <dimension ref="B1:AG12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:AJ7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C1" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
@@ -22310,40 +22324,31 @@
         <v>30</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>39</v>
       </c>
@@ -22437,50 +22442,38 @@
       </c>
       <c r="Z5">
         <f>_xlfn.MINIFS(jones_seq_2!$B$2:$B$170,jones_seq_2!$A$2:$A$170,Z$3)</f>
-        <v>32768</v>
+        <v>16087295</v>
       </c>
       <c r="AA5">
         <f>_xlfn.MINIFS(jones_seq_2!$B$2:$B$170,jones_seq_2!$A$2:$A$170,AA$3)</f>
-        <v>2097152</v>
+        <v>1595444</v>
       </c>
       <c r="AB5">
         <f>_xlfn.MINIFS(jones_seq_2!$B$2:$B$170,jones_seq_2!$A$2:$A$170,AB$3)</f>
-        <v>16777216</v>
+        <v>10</v>
       </c>
       <c r="AC5">
         <f>_xlfn.MINIFS(jones_seq_2!$B$2:$B$170,jones_seq_2!$A$2:$A$170,AC$3)</f>
-        <v>16087295</v>
+        <v>100</v>
       </c>
       <c r="AD5">
         <f>_xlfn.MINIFS(jones_seq_2!$B$2:$B$170,jones_seq_2!$A$2:$A$170,AD$3)</f>
-        <v>1595444</v>
+        <v>1000</v>
       </c>
       <c r="AE5">
         <f>_xlfn.MINIFS(jones_seq_2!$B$2:$B$170,jones_seq_2!$A$2:$A$170,AE$3)</f>
-        <v>10</v>
+        <v>9491</v>
       </c>
       <c r="AF5">
         <f>_xlfn.MINIFS(jones_seq_2!$B$2:$B$170,jones_seq_2!$A$2:$A$170,AF$3)</f>
-        <v>100</v>
+        <v>6080</v>
       </c>
       <c r="AG5">
         <f>_xlfn.MINIFS(jones_seq_2!$B$2:$B$170,jones_seq_2!$A$2:$A$170,AG$3)</f>
-        <v>1000</v>
-      </c>
-      <c r="AH5">
-        <f>_xlfn.MINIFS(jones_seq_2!$B$2:$B$170,jones_seq_2!$A$2:$A$170,AH$3)</f>
-        <v>9491</v>
-      </c>
-      <c r="AI5">
-        <f>_xlfn.MINIFS(jones_seq_2!$B$2:$B$170,jones_seq_2!$A$2:$A$170,AI$3)</f>
-        <v>6080</v>
-      </c>
-      <c r="AJ5">
-        <f>_xlfn.MINIFS(jones_seq_2!$B$2:$B$170,jones_seq_2!$A$2:$A$170,AJ$3)</f>
         <v>6642</v>
       </c>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
@@ -22574,50 +22567,38 @@
       </c>
       <c r="Z6">
         <f>_xlfn.MINIFS(jones_seq_2!$C$2:$C$170,jones_seq_2!$A$2:$A$170,Z$3)</f>
-        <v>160240</v>
+        <v>32174586</v>
       </c>
       <c r="AA6">
         <f>_xlfn.MINIFS(jones_seq_2!$C$2:$C$170,jones_seq_2!$A$2:$A$170,AA$3)</f>
-        <v>14487995</v>
+        <v>3190884</v>
       </c>
       <c r="AB6">
         <f>_xlfn.MINIFS(jones_seq_2!$C$2:$C$170,jones_seq_2!$A$2:$A$170,AB$3)</f>
-        <v>132557200</v>
+        <v>50</v>
       </c>
       <c r="AC6">
         <f>_xlfn.MINIFS(jones_seq_2!$C$2:$C$170,jones_seq_2!$A$2:$A$170,AC$3)</f>
-        <v>32174586</v>
+        <v>8172</v>
       </c>
       <c r="AD6">
         <f>_xlfn.MINIFS(jones_seq_2!$C$2:$C$170,jones_seq_2!$A$2:$A$170,AD$3)</f>
-        <v>3190884</v>
+        <v>823024</v>
       </c>
       <c r="AE6">
         <f>_xlfn.MINIFS(jones_seq_2!$C$2:$C$170,jones_seq_2!$A$2:$A$170,AE$3)</f>
-        <v>50</v>
+        <v>20690</v>
       </c>
       <c r="AF6">
         <f>_xlfn.MINIFS(jones_seq_2!$C$2:$C$170,jones_seq_2!$A$2:$A$170,AF$3)</f>
-        <v>8172</v>
+        <v>14102</v>
       </c>
       <c r="AG6">
         <f>_xlfn.MINIFS(jones_seq_2!$C$2:$C$170,jones_seq_2!$A$2:$A$170,AG$3)</f>
-        <v>823024</v>
-      </c>
-      <c r="AH6">
-        <f>_xlfn.MINIFS(jones_seq_2!$C$2:$C$170,jones_seq_2!$A$2:$A$170,AH$3)</f>
-        <v>20690</v>
-      </c>
-      <c r="AI6">
-        <f>_xlfn.MINIFS(jones_seq_2!$C$2:$C$170,jones_seq_2!$A$2:$A$170,AI$3)</f>
-        <v>14102</v>
-      </c>
-      <c r="AJ6">
-        <f>_xlfn.MINIFS(jones_seq_2!$C$2:$C$170,jones_seq_2!$A$2:$A$170,AJ$3)</f>
         <v>84784</v>
       </c>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>41</v>
       </c>
@@ -22711,50 +22692,38 @@
       </c>
       <c r="Z7" t="str">
         <f>_xlfn.CONCAT(_xlfn.MINIFS(jones_seq_2!$E$2:$E$170,jones_seq_2!$A$2:$A$170,Z$3),"-",_xlfn.MAXIFS(jones_seq_2!$E$2:$E$170,jones_seq_2!$A$2:$A$170,Z$3))</f>
-        <v>14-15</v>
+        <v>5-5</v>
       </c>
       <c r="AA7" t="str">
         <f>_xlfn.CONCAT(_xlfn.MINIFS(jones_seq_2!$E$2:$E$170,jones_seq_2!$A$2:$A$170,AA$3),"-",_xlfn.MAXIFS(jones_seq_2!$E$2:$E$170,jones_seq_2!$A$2:$A$170,AA$3))</f>
-        <v>19-21</v>
+        <v>4-4</v>
       </c>
       <c r="AB7" t="str">
         <f>_xlfn.CONCAT(_xlfn.MINIFS(jones_seq_2!$E$2:$E$170,jones_seq_2!$A$2:$A$170,AB$3),"-",_xlfn.MAXIFS(jones_seq_2!$E$2:$E$170,jones_seq_2!$A$2:$A$170,AB$3))</f>
-        <v>23-24</v>
+        <v>6-6</v>
       </c>
       <c r="AC7" t="str">
         <f>_xlfn.CONCAT(_xlfn.MINIFS(jones_seq_2!$E$2:$E$170,jones_seq_2!$A$2:$A$170,AC$3),"-",_xlfn.MAXIFS(jones_seq_2!$E$2:$E$170,jones_seq_2!$A$2:$A$170,AC$3))</f>
-        <v>5-5</v>
+        <v>78-78</v>
       </c>
       <c r="AD7" t="str">
         <f>_xlfn.CONCAT(_xlfn.MINIFS(jones_seq_2!$E$2:$E$170,jones_seq_2!$A$2:$A$170,AD$3),"-",_xlfn.MAXIFS(jones_seq_2!$E$2:$E$170,jones_seq_2!$A$2:$A$170,AD$3))</f>
-        <v>4-4</v>
+        <v>751-753</v>
       </c>
       <c r="AE7" t="str">
         <f>_xlfn.CONCAT(_xlfn.MINIFS(jones_seq_2!$E$2:$E$170,jones_seq_2!$A$2:$A$170,AE$3),"-",_xlfn.MAXIFS(jones_seq_2!$E$2:$E$170,jones_seq_2!$A$2:$A$170,AE$3))</f>
-        <v>6-6</v>
+        <v>5-5</v>
       </c>
       <c r="AF7" t="str">
         <f>_xlfn.CONCAT(_xlfn.MINIFS(jones_seq_2!$E$2:$E$170,jones_seq_2!$A$2:$A$170,AF$3),"-",_xlfn.MAXIFS(jones_seq_2!$E$2:$E$170,jones_seq_2!$A$2:$A$170,AF$3))</f>
-        <v>78-78</v>
+        <v>4-4</v>
       </c>
       <c r="AG7" t="str">
         <f>_xlfn.CONCAT(_xlfn.MINIFS(jones_seq_2!$E$2:$E$170,jones_seq_2!$A$2:$A$170,AG$3),"-",_xlfn.MAXIFS(jones_seq_2!$E$2:$E$170,jones_seq_2!$A$2:$A$170,AG$3))</f>
-        <v>751-753</v>
-      </c>
-      <c r="AH7" t="str">
-        <f>_xlfn.CONCAT(_xlfn.MINIFS(jones_seq_2!$E$2:$E$170,jones_seq_2!$A$2:$A$170,AH$3),"-",_xlfn.MAXIFS(jones_seq_2!$E$2:$E$170,jones_seq_2!$A$2:$A$170,AH$3))</f>
-        <v>5-5</v>
-      </c>
-      <c r="AI7" t="str">
-        <f>_xlfn.CONCAT(_xlfn.MINIFS(jones_seq_2!$E$2:$E$170,jones_seq_2!$A$2:$A$170,AI$3),"-",_xlfn.MAXIFS(jones_seq_2!$E$2:$E$170,jones_seq_2!$A$2:$A$170,AI$3))</f>
-        <v>4-4</v>
-      </c>
-      <c r="AJ7" t="str">
-        <f>_xlfn.CONCAT(_xlfn.MINIFS(jones_seq_2!$E$2:$E$170,jones_seq_2!$A$2:$A$170,AJ$3),"-",_xlfn.MAXIFS(jones_seq_2!$E$2:$E$170,jones_seq_2!$A$2:$A$170,AJ$3))</f>
         <v>9-9</v>
       </c>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>42</v>
       </c>
@@ -22765,7 +22734,7 @@
         <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
         <v>75</v>
@@ -22795,7 +22764,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="Q8" t="s">
         <v>59</v>
@@ -22807,7 +22776,7 @@
         <v>82</v>
       </c>
       <c r="T8" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="U8" t="s">
         <v>67</v>
@@ -22825,40 +22794,31 @@
         <v>83</v>
       </c>
       <c r="Z8" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="AA8" t="s">
         <v>84</v>
       </c>
       <c r="AB8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF8" t="s">
         <v>59</v>
       </c>
-      <c r="AC8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>87</v>
-      </c>
       <c r="AG8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>49</v>
       </c>
@@ -22955,50 +22915,38 @@
       </c>
       <c r="Z9" s="3">
         <f>AVERAGEIFS(jones_seq_2!$G$2:$G$170,jones_seq_2!$A$2:$A$170,Z$3, jones_seq_2!$D$2:$D$170,$B9)</f>
-        <v>125396.6</v>
+        <v>59555277.799999997</v>
       </c>
       <c r="AA9" s="3">
         <f>AVERAGEIFS(jones_seq_2!$G$2:$G$170,jones_seq_2!$A$2:$A$170,AA$3, jones_seq_2!$D$2:$D$170,$B9)</f>
-        <v>9602881.1999999993</v>
+        <v>5385536</v>
       </c>
       <c r="AB9" s="3">
         <f>AVERAGEIFS(jones_seq_2!$G$2:$G$170,jones_seq_2!$A$2:$A$170,AB$3, jones_seq_2!$D$2:$D$170,$B9)</f>
-        <v>84251876.200000003</v>
+        <v>355.8</v>
       </c>
       <c r="AC9" s="3">
         <f>AVERAGEIFS(jones_seq_2!$G$2:$G$170,jones_seq_2!$A$2:$A$170,AC$3, jones_seq_2!$D$2:$D$170,$B9)</f>
-        <v>59555277.799999997</v>
+        <v>2233.4</v>
       </c>
       <c r="AD9" s="3">
         <f>AVERAGEIFS(jones_seq_2!$G$2:$G$170,jones_seq_2!$A$2:$A$170,AD$3, jones_seq_2!$D$2:$D$170,$B9)</f>
-        <v>5385536</v>
+        <v>194349.4</v>
       </c>
       <c r="AE9" s="3">
         <f>AVERAGEIFS(jones_seq_2!$G$2:$G$170,jones_seq_2!$A$2:$A$170,AE$3, jones_seq_2!$D$2:$D$170,$B9)</f>
-        <v>355.8</v>
+        <v>65951.199999999997</v>
       </c>
       <c r="AF9" s="3">
         <f>AVERAGEIFS(jones_seq_2!$G$2:$G$170,jones_seq_2!$A$2:$A$170,AF$3, jones_seq_2!$D$2:$D$170,$B9)</f>
-        <v>2233.4</v>
+        <v>35524</v>
       </c>
       <c r="AG9" s="3">
         <f>AVERAGEIFS(jones_seq_2!$G$2:$G$170,jones_seq_2!$A$2:$A$170,AG$3, jones_seq_2!$D$2:$D$170,$B9)</f>
-        <v>194349.4</v>
-      </c>
-      <c r="AH9" s="3">
-        <f>AVERAGEIFS(jones_seq_2!$G$2:$G$170,jones_seq_2!$A$2:$A$170,AH$3, jones_seq_2!$D$2:$D$170,$B9)</f>
-        <v>65951.199999999997</v>
-      </c>
-      <c r="AI9" s="3">
-        <f>AVERAGEIFS(jones_seq_2!$G$2:$G$170,jones_seq_2!$A$2:$A$170,AI$3, jones_seq_2!$D$2:$D$170,$B9)</f>
-        <v>35524</v>
-      </c>
-      <c r="AJ9" s="3">
-        <f>AVERAGEIFS(jones_seq_2!$G$2:$G$170,jones_seq_2!$A$2:$A$170,AJ$3, jones_seq_2!$D$2:$D$170,$B9)</f>
         <v>43957.2</v>
       </c>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
@@ -23095,50 +23043,38 @@
       </c>
       <c r="Z10" s="3">
         <f>AVERAGEIFS(jones_seq_2!$H$2:$H$170,jones_seq_2!$A$2:$A$170,Z$3, jones_seq_2!$D$2:$D$170,$B10)</f>
-        <v>282089.8</v>
+        <v>75021295.200000003</v>
       </c>
       <c r="AA10" s="3">
         <f>AVERAGEIFS(jones_seq_2!$H$2:$H$170,jones_seq_2!$A$2:$A$170,AA$3, jones_seq_2!$D$2:$D$170,$B10)</f>
-        <v>28286934.600000001</v>
+        <v>5990443.4000000004</v>
       </c>
       <c r="AB10" s="3">
         <f>AVERAGEIFS(jones_seq_2!$H$2:$H$170,jones_seq_2!$A$2:$A$170,AB$3, jones_seq_2!$D$2:$D$170,$B10)</f>
-        <v>266413684</v>
+        <v>99.4</v>
       </c>
       <c r="AC10" s="3">
         <f>AVERAGEIFS(jones_seq_2!$H$2:$H$170,jones_seq_2!$A$2:$A$170,AC$3, jones_seq_2!$D$2:$D$170,$B10)</f>
-        <v>75021295.200000003</v>
+        <v>7018.4</v>
       </c>
       <c r="AD10" s="3">
         <f>AVERAGEIFS(jones_seq_2!$H$2:$H$170,jones_seq_2!$A$2:$A$170,AD$3, jones_seq_2!$D$2:$D$170,$B10)</f>
-        <v>5990443.4000000004</v>
+        <v>1164150.3999999999</v>
       </c>
       <c r="AE10" s="3">
         <f>AVERAGEIFS(jones_seq_2!$H$2:$H$170,jones_seq_2!$A$2:$A$170,AE$3, jones_seq_2!$D$2:$D$170,$B10)</f>
-        <v>99.4</v>
+        <v>30467.200000000001</v>
       </c>
       <c r="AF10" s="3">
         <f>AVERAGEIFS(jones_seq_2!$H$2:$H$170,jones_seq_2!$A$2:$A$170,AF$3, jones_seq_2!$D$2:$D$170,$B10)</f>
-        <v>7018.4</v>
+        <v>21425.200000000001</v>
       </c>
       <c r="AG10" s="3">
         <f>AVERAGEIFS(jones_seq_2!$H$2:$H$170,jones_seq_2!$A$2:$A$170,AG$3, jones_seq_2!$D$2:$D$170,$B10)</f>
-        <v>1164150.3999999999</v>
-      </c>
-      <c r="AH10" s="3">
-        <f>AVERAGEIFS(jones_seq_2!$H$2:$H$170,jones_seq_2!$A$2:$A$170,AH$3, jones_seq_2!$D$2:$D$170,$B10)</f>
-        <v>30467.200000000001</v>
-      </c>
-      <c r="AI10" s="3">
-        <f>AVERAGEIFS(jones_seq_2!$H$2:$H$170,jones_seq_2!$A$2:$A$170,AI$3, jones_seq_2!$D$2:$D$170,$B10)</f>
-        <v>21425.200000000001</v>
-      </c>
-      <c r="AJ10" s="3">
-        <f>AVERAGEIFS(jones_seq_2!$H$2:$H$170,jones_seq_2!$A$2:$A$170,AJ$3, jones_seq_2!$D$2:$D$170,$B10)</f>
         <v>90578.8</v>
       </c>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>49</v>
       </c>
@@ -23235,50 +23171,38 @@
       </c>
       <c r="Z11" s="3">
         <f>AVERAGEIFS(jones_seq_2!$I$2:$I$170,jones_seq_2!$A$2:$A$170,Z$3, jones_seq_2!$D$2:$D$170,$B11)</f>
-        <v>9211.4</v>
+        <v>2742549</v>
       </c>
       <c r="AA11" s="3">
         <f>AVERAGEIFS(jones_seq_2!$I$2:$I$170,jones_seq_2!$A$2:$A$170,AA$3, jones_seq_2!$D$2:$D$170,$B11)</f>
-        <v>889541.6</v>
+        <v>366801</v>
       </c>
       <c r="AB11" s="3">
         <f>AVERAGEIFS(jones_seq_2!$I$2:$I$170,jones_seq_2!$A$2:$A$170,AB$3, jones_seq_2!$D$2:$D$170,$B11)</f>
-        <v>7468201.5999999996</v>
+        <v>508.8</v>
       </c>
       <c r="AC11" s="3">
         <f>AVERAGEIFS(jones_seq_2!$I$2:$I$170,jones_seq_2!$A$2:$A$170,AC$3, jones_seq_2!$D$2:$D$170,$B11)</f>
-        <v>2742549</v>
+        <v>458.6</v>
       </c>
       <c r="AD11" s="3">
         <f>AVERAGEIFS(jones_seq_2!$I$2:$I$170,jones_seq_2!$A$2:$A$170,AD$3, jones_seq_2!$D$2:$D$170,$B11)</f>
-        <v>366801</v>
+        <v>705.4</v>
       </c>
       <c r="AE11" s="3">
         <f>AVERAGEIFS(jones_seq_2!$I$2:$I$170,jones_seq_2!$A$2:$A$170,AE$3, jones_seq_2!$D$2:$D$170,$B11)</f>
-        <v>508.8</v>
+        <v>2002.2</v>
       </c>
       <c r="AF11" s="3">
         <f>AVERAGEIFS(jones_seq_2!$I$2:$I$170,jones_seq_2!$A$2:$A$170,AF$3, jones_seq_2!$D$2:$D$170,$B11)</f>
-        <v>458.6</v>
+        <v>1473.8</v>
       </c>
       <c r="AG11" s="3">
         <f>AVERAGEIFS(jones_seq_2!$I$2:$I$170,jones_seq_2!$A$2:$A$170,AG$3, jones_seq_2!$D$2:$D$170,$B11)</f>
-        <v>705.4</v>
-      </c>
-      <c r="AH11" s="3">
-        <f>AVERAGEIFS(jones_seq_2!$I$2:$I$170,jones_seq_2!$A$2:$A$170,AH$3, jones_seq_2!$D$2:$D$170,$B11)</f>
-        <v>2002.2</v>
-      </c>
-      <c r="AI11" s="3">
-        <f>AVERAGEIFS(jones_seq_2!$I$2:$I$170,jones_seq_2!$A$2:$A$170,AI$3, jones_seq_2!$D$2:$D$170,$B11)</f>
-        <v>1473.8</v>
-      </c>
-      <c r="AJ11" s="3">
-        <f>AVERAGEIFS(jones_seq_2!$I$2:$I$170,jones_seq_2!$A$2:$A$170,AJ$3, jones_seq_2!$D$2:$D$170,$B11)</f>
         <v>1551.4</v>
       </c>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>49</v>
       </c>
@@ -23375,46 +23299,34 @@
       </c>
       <c r="Z12" s="3">
         <f>AVERAGEIFS(jones_seq_2!$F$2:$F$170,jones_seq_2!$A$2:$A$170,Z$3, jones_seq_2!$D$2:$D$170,$B12)</f>
-        <v>416698.2</v>
+        <v>137319122.80000001</v>
       </c>
       <c r="AA12" s="3">
         <f>AVERAGEIFS(jones_seq_2!$F$2:$F$170,jones_seq_2!$A$2:$A$170,AA$3, jones_seq_2!$D$2:$D$170,$B12)</f>
-        <v>38779358.399999999</v>
+        <v>11742781</v>
       </c>
       <c r="AB12" s="3">
         <f>AVERAGEIFS(jones_seq_2!$F$2:$F$170,jones_seq_2!$A$2:$A$170,AB$3, jones_seq_2!$D$2:$D$170,$B12)</f>
-        <v>358133762.60000002</v>
+        <v>965.4</v>
       </c>
       <c r="AC12" s="3">
         <f>AVERAGEIFS(jones_seq_2!$F$2:$F$170,jones_seq_2!$A$2:$A$170,AC$3, jones_seq_2!$D$2:$D$170,$B12)</f>
-        <v>137319122.80000001</v>
+        <v>9712</v>
       </c>
       <c r="AD12" s="3">
         <f>AVERAGEIFS(jones_seq_2!$F$2:$F$170,jones_seq_2!$A$2:$A$170,AD$3, jones_seq_2!$D$2:$D$170,$B12)</f>
-        <v>11742781</v>
+        <v>1359206.3999999999</v>
       </c>
       <c r="AE12" s="3">
         <f>AVERAGEIFS(jones_seq_2!$F$2:$F$170,jones_seq_2!$A$2:$A$170,AE$3, jones_seq_2!$D$2:$D$170,$B12)</f>
-        <v>965.4</v>
+        <v>98421.2</v>
       </c>
       <c r="AF12" s="3">
         <f>AVERAGEIFS(jones_seq_2!$F$2:$F$170,jones_seq_2!$A$2:$A$170,AF$3, jones_seq_2!$D$2:$D$170,$B12)</f>
-        <v>9712</v>
+        <v>58423.8</v>
       </c>
       <c r="AG12" s="3">
         <f>AVERAGEIFS(jones_seq_2!$F$2:$F$170,jones_seq_2!$A$2:$A$170,AG$3, jones_seq_2!$D$2:$D$170,$B12)</f>
-        <v>1359206.3999999999</v>
-      </c>
-      <c r="AH12" s="3">
-        <f>AVERAGEIFS(jones_seq_2!$F$2:$F$170,jones_seq_2!$A$2:$A$170,AH$3, jones_seq_2!$D$2:$D$170,$B12)</f>
-        <v>98421.2</v>
-      </c>
-      <c r="AI12" s="3">
-        <f>AVERAGEIFS(jones_seq_2!$F$2:$F$170,jones_seq_2!$A$2:$A$170,AI$3, jones_seq_2!$D$2:$D$170,$B12)</f>
-        <v>58423.8</v>
-      </c>
-      <c r="AJ12" s="3">
-        <f>AVERAGEIFS(jones_seq_2!$F$2:$F$170,jones_seq_2!$A$2:$A$170,AJ$3, jones_seq_2!$D$2:$D$170,$B12)</f>
         <v>136088.6</v>
       </c>
     </row>
@@ -23430,51 +23342,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACEA667-672E-4294-9E4B-7E06B2927947}">
   <dimension ref="B1:AG12"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:AG7"/>
+    <sheetView topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C1" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
@@ -23566,7 +23478,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>39</v>
       </c>
@@ -23691,7 +23603,7 @@
         <v>6642</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
@@ -23816,7 +23728,7 @@
         <v>84784</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>41</v>
       </c>
@@ -23941,30 +23853,30 @@
         <v>30-30</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" t="s">
         <v>89</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
         <v>90</v>
       </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>91</v>
-      </c>
-      <c r="H8" t="s">
-        <v>92</v>
       </c>
       <c r="I8" t="s">
         <v>61</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
         <v>72</v>
@@ -23973,70 +23885,70 @@
         <v>61</v>
       </c>
       <c r="M8" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" t="s">
         <v>93</v>
-      </c>
-      <c r="N8" t="s">
-        <v>94</v>
       </c>
       <c r="O8" t="s">
         <v>61</v>
       </c>
       <c r="P8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>91</v>
+      </c>
+      <c r="R8" t="s">
         <v>95</v>
       </c>
-      <c r="Q8" t="s">
-        <v>92</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
+        <v>86</v>
+      </c>
+      <c r="T8" t="s">
+        <v>105</v>
+      </c>
+      <c r="U8" t="s">
         <v>96</v>
       </c>
-      <c r="S8" t="s">
-        <v>87</v>
-      </c>
-      <c r="T8" t="s">
-        <v>47</v>
-      </c>
-      <c r="U8" t="s">
-        <v>97</v>
-      </c>
       <c r="V8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W8" t="s">
         <v>60</v>
       </c>
       <c r="X8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA8" t="s">
         <v>98</v>
       </c>
-      <c r="Y8" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD8" t="s">
         <v>99</v>
       </c>
-      <c r="AB8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>100</v>
       </c>
-      <c r="AE8" t="s">
-        <v>101</v>
-      </c>
       <c r="AF8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>49</v>
       </c>
@@ -24164,7 +24076,7 @@
         <v>45243.4</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
@@ -24292,7 +24204,7 @@
         <v>68568.800000000003</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>49</v>
       </c>
@@ -24420,7 +24332,7 @@
         <v>1698.4</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>49</v>
       </c>
@@ -24560,51 +24472,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B8DEC9-36CD-4545-9639-11D2B355CD64}">
   <dimension ref="B1:AG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:AG8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.83203125" customWidth="1"/>
+    <col min="26" max="26" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C1" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
@@ -24696,7 +24608,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>39</v>
       </c>
@@ -24821,7 +24733,7 @@
         <v>6642</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
@@ -24946,7 +24858,7 @@
         <v>84784</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>41</v>
       </c>
@@ -25071,7 +24983,7 @@
         <v>6-6</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>42</v>
       </c>
@@ -25082,7 +24994,7 @@
         <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
         <v>58</v>
@@ -25166,7 +25078,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>49</v>
       </c>
@@ -25294,7 +25206,7 @@
         <v>45922.6</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
@@ -25422,7 +25334,7 @@
         <v>58021.4</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>49</v>
       </c>
@@ -25550,7 +25462,7 @@
         <v>1946.4</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>49</v>
       </c>

--- a/raw_data/excel_report_second.xlsx
+++ b/raw_data/excel_report_second.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Master Local\GraphColoringQ1\raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lored\GraphColoringQ1\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F87789-0ADA-4067-8919-89E13462CD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1554C26-6A1C-4909-80BC-6D1BD57700DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="732" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="732" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jones_seq_1" sheetId="9" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="104">
   <si>
     <t>Column1</t>
   </si>
@@ -246,13 +246,7 @@
     <t>LDF 1 Report</t>
   </si>
   <si>
-    <t>8,0 MB</t>
-  </si>
-  <si>
     <t>340.8 MB</t>
-  </si>
-  <si>
-    <t>7.1 MB</t>
   </si>
   <si>
     <t>&lt;0,1 MB</t>
@@ -270,9 +264,6 @@
     <t>1298.3 MB</t>
   </si>
   <si>
-    <t>183.7 MB</t>
-  </si>
-  <si>
     <t>6.8 MB</t>
   </si>
   <si>
@@ -285,25 +276,13 @@
     <t>6.1 MB</t>
   </si>
   <si>
-    <t>498.1 MB</t>
-  </si>
-  <si>
-    <t>13.4 MB</t>
-  </si>
-  <si>
     <t>4.8 MB</t>
   </si>
   <si>
     <t>6.0 MB</t>
   </si>
   <si>
-    <t>8,6 MB</t>
-  </si>
-  <si>
     <t>336,6 MB</t>
-  </si>
-  <si>
-    <t>6.6 MB</t>
   </si>
   <si>
     <t>7.2 MB</t>
@@ -315,22 +294,13 @@
     <t>1299.4 MB</t>
   </si>
   <si>
-    <t>180.2 MB</t>
-  </si>
-  <si>
     <t>7.0 MB</t>
-  </si>
-  <si>
-    <t>6.2 MB</t>
   </si>
   <si>
     <t>5.4 MB</t>
   </si>
   <si>
     <t>6.3 MB</t>
-  </si>
-  <si>
-    <t>13.1 MB</t>
   </si>
   <si>
     <t>5.3 MB</t>
@@ -340,9 +310,6 @@
   </si>
   <si>
     <t>5.8 MB</t>
-  </si>
-  <si>
-    <t>8.0 MB</t>
   </si>
   <si>
     <t>319.6 MB</t>
@@ -397,6 +364,30 @@
   </si>
   <si>
     <t>3726.2 MB</t>
+  </si>
+  <si>
+    <t>142.0 MB</t>
+  </si>
+  <si>
+    <t>380.8 MB</t>
+  </si>
+  <si>
+    <t>3769.8 MB</t>
+  </si>
+  <si>
+    <t>11.3 MB</t>
+  </si>
+  <si>
+    <t>4.7 MB</t>
+  </si>
+  <si>
+    <t>4.4 MB</t>
+  </si>
+  <si>
+    <t>135.3 MB</t>
+  </si>
+  <si>
+    <t>375.0 MB</t>
   </si>
 </sst>
 </file>
@@ -456,7 +447,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -927,14 +918,14 @@
   <sheetViews>
     <sheetView topLeftCell="A149" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -966,7 +957,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -998,7 +989,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1030,7 +1021,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1062,7 +1053,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1094,7 +1085,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1126,7 +1117,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1158,7 +1149,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1190,7 +1181,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1222,7 +1213,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1254,7 +1245,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1286,7 +1277,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1318,7 +1309,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1350,7 +1341,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1382,7 +1373,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,7 +1405,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1446,7 +1437,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1478,7 +1469,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1510,7 +1501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1542,7 +1533,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1574,7 +1565,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1606,7 +1597,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1638,7 +1629,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1670,7 +1661,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1702,7 +1693,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1734,7 +1725,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -1766,7 +1757,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -1798,7 +1789,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
@@ -1830,7 +1821,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -1862,7 +1853,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -1894,7 +1885,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -1926,7 +1917,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -1958,7 +1949,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -1990,7 +1981,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -2022,7 +2013,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -2054,7 +2045,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -2086,7 +2077,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -2118,7 +2109,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -2150,7 +2141,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
@@ -2182,7 +2173,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -2214,7 +2205,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
@@ -2246,7 +2237,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -2278,7 +2269,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -2310,7 +2301,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -2342,7 +2333,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -2374,7 +2365,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -2406,7 +2397,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -2438,7 +2429,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -2470,7 +2461,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -2502,7 +2493,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -2534,7 +2525,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -2566,7 +2557,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
@@ -2598,7 +2589,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
@@ -2630,7 +2621,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>22</v>
       </c>
@@ -2662,7 +2653,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
@@ -2694,7 +2685,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>22</v>
       </c>
@@ -2726,7 +2717,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>23</v>
       </c>
@@ -2758,7 +2749,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>23</v>
       </c>
@@ -2790,7 +2781,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>23</v>
       </c>
@@ -2822,7 +2813,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>23</v>
       </c>
@@ -2854,7 +2845,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>23</v>
       </c>
@@ -2886,7 +2877,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>24</v>
       </c>
@@ -2918,7 +2909,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>24</v>
       </c>
@@ -2950,7 +2941,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>24</v>
       </c>
@@ -2982,7 +2973,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
@@ -3014,7 +3005,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>24</v>
       </c>
@@ -3046,7 +3037,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>25</v>
       </c>
@@ -3078,7 +3069,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>25</v>
       </c>
@@ -3110,7 +3101,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>25</v>
       </c>
@@ -3142,7 +3133,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
@@ -3174,7 +3165,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>25</v>
       </c>
@@ -3206,7 +3197,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>26</v>
       </c>
@@ -3238,7 +3229,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>26</v>
       </c>
@@ -3270,7 +3261,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>26</v>
       </c>
@@ -3302,7 +3293,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>26</v>
       </c>
@@ -3334,7 +3325,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>26</v>
       </c>
@@ -3366,7 +3357,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>27</v>
       </c>
@@ -3398,7 +3389,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>27</v>
       </c>
@@ -3430,7 +3421,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>27</v>
       </c>
@@ -3462,7 +3453,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>27</v>
       </c>
@@ -3494,7 +3485,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>27</v>
       </c>
@@ -3526,7 +3517,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>28</v>
       </c>
@@ -3558,7 +3549,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>28</v>
       </c>
@@ -3590,7 +3581,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>28</v>
       </c>
@@ -3622,7 +3613,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>28</v>
       </c>
@@ -3654,7 +3645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>28</v>
       </c>
@@ -3686,7 +3677,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>29</v>
       </c>
@@ -3718,7 +3709,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>29</v>
       </c>
@@ -3750,7 +3741,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>29</v>
       </c>
@@ -3782,7 +3773,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>29</v>
       </c>
@@ -3814,7 +3805,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>29</v>
       </c>
@@ -3846,7 +3837,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>30</v>
       </c>
@@ -3878,7 +3869,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>30</v>
       </c>
@@ -3910,7 +3901,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>30</v>
       </c>
@@ -3942,7 +3933,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>30</v>
       </c>
@@ -3974,7 +3965,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>30</v>
       </c>
@@ -4006,7 +3997,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>31</v>
       </c>
@@ -4038,7 +4029,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>31</v>
       </c>
@@ -4070,7 +4061,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>31</v>
       </c>
@@ -4102,7 +4093,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>31</v>
       </c>
@@ -4134,7 +4125,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>31</v>
       </c>
@@ -4166,7 +4157,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>51</v>
       </c>
@@ -4198,7 +4189,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>51</v>
       </c>
@@ -4230,7 +4221,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>51</v>
       </c>
@@ -4262,7 +4253,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>51</v>
       </c>
@@ -4294,7 +4285,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>51</v>
       </c>
@@ -4326,7 +4317,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>32</v>
       </c>
@@ -4358,7 +4349,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>32</v>
       </c>
@@ -4390,7 +4381,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>32</v>
       </c>
@@ -4422,7 +4413,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>32</v>
       </c>
@@ -4454,7 +4445,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>32</v>
       </c>
@@ -4486,7 +4477,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>33</v>
       </c>
@@ -4518,7 +4509,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>33</v>
       </c>
@@ -4550,7 +4541,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>33</v>
       </c>
@@ -4582,7 +4573,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>33</v>
       </c>
@@ -4614,7 +4605,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>33</v>
       </c>
@@ -4646,7 +4637,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>34</v>
       </c>
@@ -4678,7 +4669,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>34</v>
       </c>
@@ -4710,7 +4701,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>34</v>
       </c>
@@ -4742,7 +4733,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>34</v>
       </c>
@@ -4774,7 +4765,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>34</v>
       </c>
@@ -4806,7 +4797,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>35</v>
       </c>
@@ -4838,7 +4829,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>35</v>
       </c>
@@ -4870,7 +4861,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>35</v>
       </c>
@@ -4902,7 +4893,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>35</v>
       </c>
@@ -4934,7 +4925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>35</v>
       </c>
@@ -4966,7 +4957,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>36</v>
       </c>
@@ -4998,7 +4989,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>36</v>
       </c>
@@ -5030,7 +5021,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>36</v>
       </c>
@@ -5062,7 +5053,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>36</v>
       </c>
@@ -5094,7 +5085,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>36</v>
       </c>
@@ -5126,7 +5117,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>37</v>
       </c>
@@ -5158,7 +5149,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>37</v>
       </c>
@@ -5190,7 +5181,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>37</v>
       </c>
@@ -5222,7 +5213,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>37</v>
       </c>
@@ -5254,7 +5245,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>37</v>
       </c>
@@ -5286,7 +5277,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>38</v>
       </c>
@@ -5318,7 +5309,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>38</v>
       </c>
@@ -5350,7 +5341,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>38</v>
       </c>
@@ -5382,7 +5373,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>38</v>
       </c>
@@ -5414,7 +5405,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>38</v>
       </c>
@@ -5446,7 +5437,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>9</v>
       </c>
@@ -5478,7 +5469,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>9</v>
       </c>
@@ -5510,7 +5501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>9</v>
       </c>
@@ -5542,7 +5533,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>9</v>
       </c>
@@ -5574,7 +5565,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>9</v>
       </c>
@@ -5606,7 +5597,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>10</v>
       </c>
@@ -5638,7 +5629,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>10</v>
       </c>
@@ -5670,7 +5661,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>10</v>
       </c>
@@ -5702,7 +5693,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>10</v>
       </c>
@@ -5734,7 +5725,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>10</v>
       </c>
@@ -5766,7 +5757,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>11</v>
       </c>
@@ -5798,7 +5789,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>11</v>
       </c>
@@ -5830,7 +5821,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>11</v>
       </c>
@@ -5862,7 +5853,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>11</v>
       </c>
@@ -5894,7 +5885,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>11</v>
       </c>
@@ -5940,14 +5931,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5979,7 +5970,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -6011,7 +6002,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -6043,7 +6034,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -6075,7 +6066,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -6107,7 +6098,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -6139,7 +6130,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -6171,7 +6162,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -6203,7 +6194,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -6235,7 +6226,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -6267,7 +6258,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -6299,7 +6290,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -6331,7 +6322,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -6363,7 +6354,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -6395,7 +6386,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -6427,7 +6418,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -6459,7 +6450,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -6491,7 +6482,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -6523,7 +6514,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -6555,7 +6546,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -6587,7 +6578,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -6619,7 +6610,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -6651,7 +6642,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -6683,7 +6674,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -6715,7 +6706,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -6747,7 +6738,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -6779,7 +6770,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -6811,7 +6802,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
@@ -6843,7 +6834,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -6875,7 +6866,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -6907,7 +6898,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -6939,7 +6930,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -6971,7 +6962,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -7003,7 +6994,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -7035,7 +7026,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -7067,7 +7058,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -7099,7 +7090,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -7131,7 +7122,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -7163,7 +7154,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
@@ -7195,7 +7186,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -7227,7 +7218,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
@@ -7259,7 +7250,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -7291,7 +7282,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -7323,7 +7314,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -7355,7 +7346,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -7387,7 +7378,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -7419,7 +7410,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -7451,7 +7442,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -7483,7 +7474,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -7515,7 +7506,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -7547,7 +7538,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -7579,7 +7570,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
@@ -7611,7 +7602,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
@@ -7643,7 +7634,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>22</v>
       </c>
@@ -7675,7 +7666,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
@@ -7707,7 +7698,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>22</v>
       </c>
@@ -7739,7 +7730,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>23</v>
       </c>
@@ -7771,7 +7762,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>23</v>
       </c>
@@ -7803,7 +7794,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>23</v>
       </c>
@@ -7835,7 +7826,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>23</v>
       </c>
@@ -7867,7 +7858,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>23</v>
       </c>
@@ -7899,7 +7890,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>24</v>
       </c>
@@ -7931,7 +7922,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>24</v>
       </c>
@@ -7963,7 +7954,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>24</v>
       </c>
@@ -7995,7 +7986,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
@@ -8027,7 +8018,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>24</v>
       </c>
@@ -8059,7 +8050,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>25</v>
       </c>
@@ -8091,7 +8082,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>25</v>
       </c>
@@ -8123,7 +8114,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>25</v>
       </c>
@@ -8155,7 +8146,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
@@ -8187,7 +8178,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>25</v>
       </c>
@@ -8219,7 +8210,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>26</v>
       </c>
@@ -8251,7 +8242,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>26</v>
       </c>
@@ -8283,7 +8274,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>26</v>
       </c>
@@ -8315,7 +8306,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>26</v>
       </c>
@@ -8347,7 +8338,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>26</v>
       </c>
@@ -8379,7 +8370,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>27</v>
       </c>
@@ -8411,7 +8402,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>27</v>
       </c>
@@ -8443,7 +8434,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>27</v>
       </c>
@@ -8475,7 +8466,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>27</v>
       </c>
@@ -8507,7 +8498,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>27</v>
       </c>
@@ -8539,7 +8530,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>28</v>
       </c>
@@ -8571,7 +8562,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>28</v>
       </c>
@@ -8603,7 +8594,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>28</v>
       </c>
@@ -8635,7 +8626,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>28</v>
       </c>
@@ -8667,7 +8658,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>28</v>
       </c>
@@ -8699,7 +8690,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>29</v>
       </c>
@@ -8731,7 +8722,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>29</v>
       </c>
@@ -8763,7 +8754,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>29</v>
       </c>
@@ -8795,7 +8786,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>29</v>
       </c>
@@ -8827,7 +8818,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>29</v>
       </c>
@@ -8859,7 +8850,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>30</v>
       </c>
@@ -8891,7 +8882,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>30</v>
       </c>
@@ -8923,7 +8914,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>30</v>
       </c>
@@ -8955,7 +8946,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>30</v>
       </c>
@@ -8987,7 +8978,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>30</v>
       </c>
@@ -9019,7 +9010,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>31</v>
       </c>
@@ -9051,7 +9042,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>31</v>
       </c>
@@ -9083,7 +9074,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>31</v>
       </c>
@@ -9115,7 +9106,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>31</v>
       </c>
@@ -9147,7 +9138,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>31</v>
       </c>
@@ -9179,7 +9170,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>51</v>
       </c>
@@ -9211,7 +9202,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>51</v>
       </c>
@@ -9243,7 +9234,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>51</v>
       </c>
@@ -9275,7 +9266,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>51</v>
       </c>
@@ -9307,7 +9298,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>51</v>
       </c>
@@ -9339,7 +9330,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>32</v>
       </c>
@@ -9371,7 +9362,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>32</v>
       </c>
@@ -9403,7 +9394,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>32</v>
       </c>
@@ -9435,7 +9426,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>32</v>
       </c>
@@ -9467,7 +9458,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>32</v>
       </c>
@@ -9499,7 +9490,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>33</v>
       </c>
@@ -9531,7 +9522,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>33</v>
       </c>
@@ -9563,7 +9554,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>33</v>
       </c>
@@ -9595,7 +9586,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>33</v>
       </c>
@@ -9627,7 +9618,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>33</v>
       </c>
@@ -9659,7 +9650,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>34</v>
       </c>
@@ -9691,7 +9682,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>34</v>
       </c>
@@ -9723,7 +9714,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>34</v>
       </c>
@@ -9755,7 +9746,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>34</v>
       </c>
@@ -9787,7 +9778,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>34</v>
       </c>
@@ -9819,7 +9810,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>35</v>
       </c>
@@ -9851,7 +9842,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>35</v>
       </c>
@@ -9883,7 +9874,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>35</v>
       </c>
@@ -9915,7 +9906,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>35</v>
       </c>
@@ -9947,7 +9938,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>35</v>
       </c>
@@ -9979,7 +9970,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>36</v>
       </c>
@@ -10011,7 +10002,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>36</v>
       </c>
@@ -10043,7 +10034,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>36</v>
       </c>
@@ -10075,7 +10066,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>36</v>
       </c>
@@ -10107,7 +10098,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>36</v>
       </c>
@@ -10139,7 +10130,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>37</v>
       </c>
@@ -10171,7 +10162,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>37</v>
       </c>
@@ -10203,7 +10194,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>37</v>
       </c>
@@ -10235,7 +10226,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>37</v>
       </c>
@@ -10267,7 +10258,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>37</v>
       </c>
@@ -10299,7 +10290,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>38</v>
       </c>
@@ -10331,7 +10322,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>38</v>
       </c>
@@ -10363,7 +10354,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>38</v>
       </c>
@@ -10395,7 +10386,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>38</v>
       </c>
@@ -10427,7 +10418,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>38</v>
       </c>
@@ -10459,7 +10450,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>9</v>
       </c>
@@ -10491,7 +10482,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>9</v>
       </c>
@@ -10523,7 +10514,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>9</v>
       </c>
@@ -10555,7 +10546,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>9</v>
       </c>
@@ -10587,7 +10578,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>9</v>
       </c>
@@ -10619,7 +10610,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>10</v>
       </c>
@@ -10651,7 +10642,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>10</v>
       </c>
@@ -10683,7 +10674,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>10</v>
       </c>
@@ -10715,7 +10706,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>10</v>
       </c>
@@ -10747,7 +10738,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>10</v>
       </c>
@@ -10779,7 +10770,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>11</v>
       </c>
@@ -10811,7 +10802,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>11</v>
       </c>
@@ -10843,7 +10834,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>11</v>
       </c>
@@ -10875,7 +10866,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>11</v>
       </c>
@@ -10907,7 +10898,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>11</v>
       </c>
@@ -10953,14 +10944,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10992,7 +10983,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -11024,7 +11015,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -11056,7 +11047,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -11088,7 +11079,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -11120,7 +11111,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -11152,7 +11143,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -11184,7 +11175,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -11216,7 +11207,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -11248,7 +11239,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -11280,7 +11271,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -11312,7 +11303,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -11344,7 +11335,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -11376,7 +11367,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -11408,7 +11399,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -11440,7 +11431,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -11472,7 +11463,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -11504,7 +11495,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -11536,7 +11527,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -11568,7 +11559,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -11600,7 +11591,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -11632,7 +11623,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -11664,7 +11655,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -11696,7 +11687,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -11728,7 +11719,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -11760,7 +11751,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -11792,7 +11783,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -11824,7 +11815,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
@@ -11856,7 +11847,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -11888,7 +11879,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -11920,7 +11911,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -11952,7 +11943,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -11984,7 +11975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -12016,7 +12007,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -12048,7 +12039,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -12080,7 +12071,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -12112,7 +12103,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -12144,7 +12135,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -12176,7 +12167,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
@@ -12208,7 +12199,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -12240,7 +12231,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
@@ -12272,7 +12263,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -12304,7 +12295,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -12336,7 +12327,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -12368,7 +12359,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -12400,7 +12391,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -12432,7 +12423,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -12464,7 +12455,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -12496,7 +12487,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -12528,7 +12519,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -12560,7 +12551,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -12592,7 +12583,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
@@ -12624,7 +12615,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
@@ -12656,7 +12647,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>22</v>
       </c>
@@ -12688,7 +12679,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
@@ -12720,7 +12711,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>22</v>
       </c>
@@ -12752,7 +12743,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>23</v>
       </c>
@@ -12784,7 +12775,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>23</v>
       </c>
@@ -12816,7 +12807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>23</v>
       </c>
@@ -12848,7 +12839,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>23</v>
       </c>
@@ -12880,7 +12871,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>23</v>
       </c>
@@ -12912,7 +12903,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>24</v>
       </c>
@@ -12944,7 +12935,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>24</v>
       </c>
@@ -12976,7 +12967,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>24</v>
       </c>
@@ -13008,7 +12999,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
@@ -13040,7 +13031,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>24</v>
       </c>
@@ -13072,7 +13063,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>25</v>
       </c>
@@ -13104,7 +13095,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>25</v>
       </c>
@@ -13136,7 +13127,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>25</v>
       </c>
@@ -13168,7 +13159,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
@@ -13200,7 +13191,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>25</v>
       </c>
@@ -13232,7 +13223,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>26</v>
       </c>
@@ -13264,7 +13255,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>26</v>
       </c>
@@ -13296,7 +13287,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>26</v>
       </c>
@@ -13328,7 +13319,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>26</v>
       </c>
@@ -13360,7 +13351,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>26</v>
       </c>
@@ -13392,7 +13383,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>27</v>
       </c>
@@ -13424,7 +13415,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>27</v>
       </c>
@@ -13456,7 +13447,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>27</v>
       </c>
@@ -13488,7 +13479,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>27</v>
       </c>
@@ -13520,7 +13511,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>27</v>
       </c>
@@ -13552,7 +13543,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>28</v>
       </c>
@@ -13584,7 +13575,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>28</v>
       </c>
@@ -13616,7 +13607,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>28</v>
       </c>
@@ -13648,7 +13639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>28</v>
       </c>
@@ -13680,7 +13671,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>28</v>
       </c>
@@ -13712,7 +13703,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>29</v>
       </c>
@@ -13744,7 +13735,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>29</v>
       </c>
@@ -13776,7 +13767,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>29</v>
       </c>
@@ -13808,7 +13799,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>29</v>
       </c>
@@ -13840,7 +13831,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>29</v>
       </c>
@@ -13872,7 +13863,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>30</v>
       </c>
@@ -13904,7 +13895,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>30</v>
       </c>
@@ -13936,7 +13927,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>30</v>
       </c>
@@ -13968,7 +13959,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>30</v>
       </c>
@@ -14000,7 +13991,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>30</v>
       </c>
@@ -14032,7 +14023,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>31</v>
       </c>
@@ -14064,7 +14055,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>31</v>
       </c>
@@ -14096,7 +14087,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>31</v>
       </c>
@@ -14128,7 +14119,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>31</v>
       </c>
@@ -14160,7 +14151,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>31</v>
       </c>
@@ -14192,7 +14183,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>51</v>
       </c>
@@ -14224,7 +14215,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>51</v>
       </c>
@@ -14256,7 +14247,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>51</v>
       </c>
@@ -14288,7 +14279,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>51</v>
       </c>
@@ -14320,7 +14311,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>51</v>
       </c>
@@ -14352,7 +14343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>32</v>
       </c>
@@ -14384,7 +14375,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>32</v>
       </c>
@@ -14416,7 +14407,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>32</v>
       </c>
@@ -14448,7 +14439,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>32</v>
       </c>
@@ -14480,7 +14471,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>32</v>
       </c>
@@ -14512,7 +14503,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>33</v>
       </c>
@@ -14544,7 +14535,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>33</v>
       </c>
@@ -14576,7 +14567,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>33</v>
       </c>
@@ -14608,7 +14599,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>33</v>
       </c>
@@ -14640,7 +14631,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>33</v>
       </c>
@@ -14672,7 +14663,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>34</v>
       </c>
@@ -14704,7 +14695,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>34</v>
       </c>
@@ -14736,7 +14727,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>34</v>
       </c>
@@ -14768,7 +14759,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>34</v>
       </c>
@@ -14800,7 +14791,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>34</v>
       </c>
@@ -14832,7 +14823,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>35</v>
       </c>
@@ -14864,7 +14855,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>35</v>
       </c>
@@ -14896,7 +14887,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>35</v>
       </c>
@@ -14928,7 +14919,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>35</v>
       </c>
@@ -14960,7 +14951,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>35</v>
       </c>
@@ -14992,7 +14983,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>36</v>
       </c>
@@ -15024,7 +15015,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>36</v>
       </c>
@@ -15056,7 +15047,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>36</v>
       </c>
@@ -15088,7 +15079,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>36</v>
       </c>
@@ -15120,7 +15111,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>36</v>
       </c>
@@ -15152,7 +15143,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>37</v>
       </c>
@@ -15184,7 +15175,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>37</v>
       </c>
@@ -15216,7 +15207,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>37</v>
       </c>
@@ -15248,7 +15239,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>37</v>
       </c>
@@ -15280,7 +15271,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>37</v>
       </c>
@@ -15312,7 +15303,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>38</v>
       </c>
@@ -15344,7 +15335,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>38</v>
       </c>
@@ -15376,7 +15367,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>38</v>
       </c>
@@ -15408,7 +15399,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>38</v>
       </c>
@@ -15440,7 +15431,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>38</v>
       </c>
@@ -15472,7 +15463,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>9</v>
       </c>
@@ -15504,7 +15495,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>9</v>
       </c>
@@ -15536,7 +15527,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>9</v>
       </c>
@@ -15568,7 +15559,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>9</v>
       </c>
@@ -15600,7 +15591,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>9</v>
       </c>
@@ -15632,7 +15623,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>10</v>
       </c>
@@ -15664,7 +15655,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>10</v>
       </c>
@@ -15696,7 +15687,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>10</v>
       </c>
@@ -15728,7 +15719,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>10</v>
       </c>
@@ -15760,7 +15751,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>10</v>
       </c>
@@ -15792,7 +15783,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>11</v>
       </c>
@@ -15824,7 +15815,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>11</v>
       </c>
@@ -15856,7 +15847,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>11</v>
       </c>
@@ -15888,7 +15879,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>11</v>
       </c>
@@ -15920,7 +15911,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>11</v>
       </c>
@@ -15968,14 +15959,14 @@
       <selection activeCell="F17" sqref="F17:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16007,7 +15998,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -16039,7 +16030,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -16071,7 +16062,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -16103,7 +16094,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -16135,7 +16126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -16167,7 +16158,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -16199,7 +16190,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -16231,7 +16222,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -16263,7 +16254,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -16295,7 +16286,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -16327,7 +16318,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -16359,7 +16350,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -16391,7 +16382,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -16423,7 +16414,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -16455,7 +16446,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -16487,7 +16478,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -16519,7 +16510,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -16551,7 +16542,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -16583,7 +16574,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -16615,7 +16606,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -16647,7 +16638,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -16679,7 +16670,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -16711,7 +16702,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -16743,7 +16734,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -16775,7 +16766,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -16807,7 +16798,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -16839,7 +16830,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
@@ -16871,7 +16862,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -16903,7 +16894,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -16935,7 +16926,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -16967,7 +16958,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -16999,7 +16990,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -17031,7 +17022,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -17063,7 +17054,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -17095,7 +17086,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -17127,7 +17118,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -17159,7 +17150,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -17191,7 +17182,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
@@ -17223,7 +17214,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -17255,7 +17246,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
@@ -17287,7 +17278,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -17319,7 +17310,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -17351,7 +17342,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -17383,7 +17374,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -17415,7 +17406,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -17447,7 +17438,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -17479,7 +17470,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -17511,7 +17502,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -17543,7 +17534,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -17575,7 +17566,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -17607,7 +17598,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
@@ -17639,7 +17630,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
@@ -17671,7 +17662,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>22</v>
       </c>
@@ -17703,7 +17694,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
@@ -17735,7 +17726,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>22</v>
       </c>
@@ -17767,7 +17758,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>23</v>
       </c>
@@ -17799,7 +17790,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>23</v>
       </c>
@@ -17831,7 +17822,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>23</v>
       </c>
@@ -17863,7 +17854,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>23</v>
       </c>
@@ -17895,7 +17886,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>23</v>
       </c>
@@ -17927,7 +17918,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>24</v>
       </c>
@@ -17959,7 +17950,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>24</v>
       </c>
@@ -17991,7 +17982,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>24</v>
       </c>
@@ -18023,7 +18014,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
@@ -18055,7 +18046,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>24</v>
       </c>
@@ -18087,7 +18078,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>25</v>
       </c>
@@ -18119,7 +18110,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>25</v>
       </c>
@@ -18151,7 +18142,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>25</v>
       </c>
@@ -18183,7 +18174,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
@@ -18215,7 +18206,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>25</v>
       </c>
@@ -18247,7 +18238,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>26</v>
       </c>
@@ -18279,7 +18270,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>26</v>
       </c>
@@ -18311,7 +18302,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>26</v>
       </c>
@@ -18343,7 +18334,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>26</v>
       </c>
@@ -18375,7 +18366,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>26</v>
       </c>
@@ -18407,7 +18398,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>27</v>
       </c>
@@ -18439,7 +18430,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>27</v>
       </c>
@@ -18471,7 +18462,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>27</v>
       </c>
@@ -18503,7 +18494,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>27</v>
       </c>
@@ -18535,7 +18526,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>27</v>
       </c>
@@ -18567,7 +18558,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>28</v>
       </c>
@@ -18599,7 +18590,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>28</v>
       </c>
@@ -18631,7 +18622,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>28</v>
       </c>
@@ -18663,7 +18654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>28</v>
       </c>
@@ -18695,7 +18686,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>28</v>
       </c>
@@ -18727,7 +18718,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>29</v>
       </c>
@@ -18759,7 +18750,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>29</v>
       </c>
@@ -18791,7 +18782,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>29</v>
       </c>
@@ -18823,7 +18814,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>29</v>
       </c>
@@ -18855,7 +18846,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>29</v>
       </c>
@@ -18887,7 +18878,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>30</v>
       </c>
@@ -18919,7 +18910,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>30</v>
       </c>
@@ -18951,7 +18942,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>30</v>
       </c>
@@ -18983,7 +18974,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>30</v>
       </c>
@@ -19015,7 +19006,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>30</v>
       </c>
@@ -19047,7 +19038,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>31</v>
       </c>
@@ -19079,7 +19070,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>31</v>
       </c>
@@ -19111,7 +19102,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>31</v>
       </c>
@@ -19143,7 +19134,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>31</v>
       </c>
@@ -19175,7 +19166,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>31</v>
       </c>
@@ -19207,7 +19198,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>51</v>
       </c>
@@ -19239,7 +19230,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>51</v>
       </c>
@@ -19271,7 +19262,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>51</v>
       </c>
@@ -19303,7 +19294,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>51</v>
       </c>
@@ -19335,7 +19326,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>51</v>
       </c>
@@ -19367,7 +19358,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>32</v>
       </c>
@@ -19399,7 +19390,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>32</v>
       </c>
@@ -19431,7 +19422,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>32</v>
       </c>
@@ -19463,7 +19454,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>32</v>
       </c>
@@ -19495,7 +19486,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>32</v>
       </c>
@@ -19527,7 +19518,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>33</v>
       </c>
@@ -19559,7 +19550,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>33</v>
       </c>
@@ -19591,7 +19582,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>33</v>
       </c>
@@ -19623,7 +19614,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>33</v>
       </c>
@@ -19655,7 +19646,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>33</v>
       </c>
@@ -19687,7 +19678,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>34</v>
       </c>
@@ -19719,7 +19710,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>34</v>
       </c>
@@ -19751,7 +19742,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>34</v>
       </c>
@@ -19783,7 +19774,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>34</v>
       </c>
@@ -19815,7 +19806,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>34</v>
       </c>
@@ -19847,7 +19838,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>35</v>
       </c>
@@ -19879,7 +19870,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>35</v>
       </c>
@@ -19911,7 +19902,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>35</v>
       </c>
@@ -19943,7 +19934,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>35</v>
       </c>
@@ -19975,7 +19966,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>35</v>
       </c>
@@ -20007,7 +19998,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>36</v>
       </c>
@@ -20039,7 +20030,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>36</v>
       </c>
@@ -20071,7 +20062,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>36</v>
       </c>
@@ -20103,7 +20094,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>36</v>
       </c>
@@ -20135,7 +20126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>36</v>
       </c>
@@ -20167,7 +20158,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>37</v>
       </c>
@@ -20199,7 +20190,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>37</v>
       </c>
@@ -20231,7 +20222,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>37</v>
       </c>
@@ -20263,7 +20254,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>37</v>
       </c>
@@ -20295,7 +20286,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>37</v>
       </c>
@@ -20327,7 +20318,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>38</v>
       </c>
@@ -20359,7 +20350,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>38</v>
       </c>
@@ -20391,7 +20382,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>38</v>
       </c>
@@ -20423,7 +20414,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>38</v>
       </c>
@@ -20455,7 +20446,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>38</v>
       </c>
@@ -20487,7 +20478,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>9</v>
       </c>
@@ -20519,7 +20510,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>9</v>
       </c>
@@ -20551,7 +20542,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>9</v>
       </c>
@@ -20583,7 +20574,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>9</v>
       </c>
@@ -20615,7 +20606,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>9</v>
       </c>
@@ -20647,7 +20638,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>10</v>
       </c>
@@ -20679,7 +20670,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>10</v>
       </c>
@@ -20711,7 +20702,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>10</v>
       </c>
@@ -20743,7 +20734,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>10</v>
       </c>
@@ -20775,7 +20766,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>10</v>
       </c>
@@ -20807,7 +20798,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>11</v>
       </c>
@@ -20839,7 +20830,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>11</v>
       </c>
@@ -20871,7 +20862,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>11</v>
       </c>
@@ -20903,7 +20894,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>11</v>
       </c>
@@ -20935,7 +20926,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>11</v>
       </c>
@@ -20983,48 +20974,48 @@
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C1" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.3">
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
@@ -21125,7 +21116,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>39</v>
       </c>
@@ -21262,7 +21253,7 @@
         <v>6642</v>
       </c>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
@@ -21399,7 +21390,7 @@
         <v>84784</v>
       </c>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C7" s="4" t="s">
         <v>41</v>
       </c>
@@ -21536,7 +21527,7 @@
         <v>53-55</v>
       </c>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
         <v>42</v>
       </c>
@@ -21640,7 +21631,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>49</v>
       </c>
@@ -21780,7 +21771,7 @@
         <v>43983.4</v>
       </c>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
@@ -21920,7 +21911,7 @@
         <v>34144.400000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>49</v>
       </c>
@@ -22060,7 +22051,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>49</v>
       </c>
@@ -22212,51 +22203,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DB7630-DF52-48BE-8A6F-B7F822D8062B}">
   <dimension ref="B1:AG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C1" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
@@ -22348,7 +22339,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>39</v>
       </c>
@@ -22473,7 +22464,7 @@
         <v>6642</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
@@ -22598,7 +22589,7 @@
         <v>84784</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C7" s="4" t="s">
         <v>41</v>
       </c>
@@ -22723,102 +22714,102 @@
         <v>9-9</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>57</v>
+      </c>
+      <c r="R8" t="s">
+        <v>58</v>
+      </c>
+      <c r="S8" t="s">
         <v>73</v>
       </c>
-      <c r="E8" t="s">
+      <c r="T8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U8" t="s">
+        <v>64</v>
+      </c>
+      <c r="V8" t="s">
+        <v>57</v>
+      </c>
+      <c r="W8" t="s">
+        <v>73</v>
+      </c>
+      <c r="X8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y8" t="s">
         <v>74</v>
       </c>
-      <c r="F8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="Z8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB8" t="s">
         <v>75</v>
       </c>
-      <c r="H8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="AC8" t="s">
         <v>76</v>
       </c>
-      <c r="J8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="AD8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE8" t="s">
         <v>77</v>
       </c>
-      <c r="L8" t="s">
-        <v>76</v>
-      </c>
-      <c r="M8" t="s">
-        <v>78</v>
-      </c>
-      <c r="N8" t="s">
-        <v>79</v>
-      </c>
-      <c r="O8" t="s">
-        <v>80</v>
-      </c>
-      <c r="P8" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R8" t="s">
-        <v>81</v>
-      </c>
-      <c r="S8" t="s">
-        <v>82</v>
-      </c>
-      <c r="T8" t="s">
-        <v>103</v>
-      </c>
-      <c r="U8" t="s">
-        <v>67</v>
-      </c>
-      <c r="V8" t="s">
-        <v>59</v>
-      </c>
-      <c r="W8" t="s">
-        <v>82</v>
-      </c>
-      <c r="X8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>87</v>
-      </c>
       <c r="AF8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AG8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>49</v>
       </c>
@@ -22946,7 +22937,7 @@
         <v>43957.2</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
@@ -23074,7 +23065,7 @@
         <v>90578.8</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>49</v>
       </c>
@@ -23202,7 +23193,7 @@
         <v>1551.4</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>49</v>
       </c>
@@ -23342,51 +23333,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACEA667-672E-4294-9E4B-7E06B2927947}">
   <dimension ref="B1:AG12"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C1" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
@@ -23478,7 +23469,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>39</v>
       </c>
@@ -23603,7 +23594,7 @@
         <v>6642</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
@@ -23728,7 +23719,7 @@
         <v>84784</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C7" s="4" t="s">
         <v>41</v>
       </c>
@@ -23853,102 +23844,102 @@
         <v>30-30</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" t="s">
+        <v>101</v>
+      </c>
+      <c r="S8" t="s">
+        <v>76</v>
+      </c>
+      <c r="T8" t="s">
+        <v>94</v>
+      </c>
+      <c r="U8" t="s">
+        <v>85</v>
+      </c>
+      <c r="V8" t="s">
+        <v>80</v>
+      </c>
+      <c r="W8" t="s">
+        <v>58</v>
+      </c>
+      <c r="X8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD8" t="s">
         <v>88</v>
       </c>
-      <c r="E8" t="s">
+      <c r="AE8" t="s">
         <v>89</v>
       </c>
-      <c r="F8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" t="s">
-        <v>87</v>
-      </c>
-      <c r="K8" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M8" t="s">
-        <v>92</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="AF8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG8" t="s">
         <v>93</v>
       </c>
-      <c r="O8" t="s">
-        <v>61</v>
-      </c>
-      <c r="P8" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>91</v>
-      </c>
-      <c r="R8" t="s">
-        <v>95</v>
-      </c>
-      <c r="S8" t="s">
-        <v>86</v>
-      </c>
-      <c r="T8" t="s">
-        <v>105</v>
-      </c>
-      <c r="U8" t="s">
-        <v>96</v>
-      </c>
-      <c r="V8" t="s">
-        <v>91</v>
-      </c>
-      <c r="W8" t="s">
-        <v>60</v>
-      </c>
-      <c r="X8" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>49</v>
       </c>
@@ -24076,7 +24067,7 @@
         <v>45243.4</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
@@ -24204,7 +24195,7 @@
         <v>68568.800000000003</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>49</v>
       </c>
@@ -24332,7 +24323,7 @@
         <v>1698.4</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>49</v>
       </c>
@@ -24472,51 +24463,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B8DEC9-36CD-4545-9639-11D2B355CD64}">
   <dimension ref="B1:AG12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.85546875" customWidth="1"/>
+    <col min="26" max="26" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C1" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
@@ -24608,7 +24599,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>39</v>
       </c>
@@ -24733,7 +24724,7 @@
         <v>6642</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
@@ -24858,7 +24849,7 @@
         <v>84784</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C7" s="4" t="s">
         <v>41</v>
       </c>
@@ -24983,102 +24974,102 @@
         <v>6-6</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
         <v>56</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" t="s">
         <v>57</v>
       </c>
-      <c r="F8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>58</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>59</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" t="s">
         <v>60</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
         <v>61</v>
       </c>
-      <c r="K8" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
         <v>62</v>
-      </c>
-      <c r="M8" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O8" t="s">
-        <v>65</v>
       </c>
       <c r="P8" t="s">
         <v>47</v>
       </c>
       <c r="Q8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R8" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="S8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T8" t="s">
         <v>47</v>
       </c>
       <c r="U8" t="s">
+        <v>64</v>
+      </c>
+      <c r="V8" t="s">
+        <v>58</v>
+      </c>
+      <c r="W8" t="s">
+        <v>65</v>
+      </c>
+      <c r="X8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG8" t="s">
         <v>67</v>
       </c>
-      <c r="V8" t="s">
-        <v>60</v>
-      </c>
-      <c r="W8" t="s">
-        <v>68</v>
-      </c>
-      <c r="X8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>49</v>
       </c>
@@ -25206,7 +25197,7 @@
         <v>45922.6</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
@@ -25334,7 +25325,7 @@
         <v>58021.4</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>49</v>
       </c>
@@ -25462,7 +25453,7 @@
         <v>1946.4</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>49</v>
       </c>
